--- a/data/April Orders Report.xlsx
+++ b/data/April Orders Report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://openkitchens-my.sharepoint.com/personal/zchang_openkitchens_com/Documents/Documents/AFYA Orders Record Analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\company\project\MLDS_Project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="394" documentId="13_ncr:1_{441DFD09-6C41-4040-B0BA-BB1545961814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{539BD5DC-B566-40E0-830B-356029FB3B4B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A6A9503-89CC-4DD8-9850-A003BF503350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21480" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{BBDA3451-150A-41A4-A505-17740536A611}"/>
+    <workbookView xWindow="2580" yWindow="2592" windowWidth="23040" windowHeight="12120" xr2:uid="{BBDA3451-150A-41A4-A505-17740536A611}"/>
   </bookViews>
   <sheets>
     <sheet name="MAYWOOD" sheetId="1" r:id="rId1"/>
@@ -94,377 +94,377 @@
   <commentList>
     <comment ref="B3" authorId="0" shapeId="0" xr:uid="{61489C9E-EEB9-40DE-93CD-4C9845612A14}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
     Served 270</t>
       </text>
     </comment>
     <comment ref="C3" authorId="1" shapeId="0" xr:uid="{8C7488F7-F295-42A2-85E4-871119FC8BF3}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
     Served 295</t>
       </text>
     </comment>
-    <comment ref="F3" authorId="2" shapeId="0" xr:uid="{E7472301-F29A-4611-A142-952BF57254F4}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+    <comment ref="H3" authorId="2" shapeId="0" xr:uid="{E7472301-F29A-4611-A142-952BF57254F4}">
+      <text>
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
     Served 191</t>
       </text>
     </comment>
-    <comment ref="H3" authorId="3" shapeId="0" xr:uid="{E154E7C7-FC94-4059-B3A3-84D8854F9F69}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+    <comment ref="J3" authorId="3" shapeId="0" xr:uid="{E154E7C7-FC94-4059-B3A3-84D8854F9F69}">
+      <text>
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
     Served 176</t>
       </text>
     </comment>
-    <comment ref="I3" authorId="4" shapeId="0" xr:uid="{87884DA3-B1B9-4680-BEC0-4466A0FC3B9D}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+    <comment ref="K3" authorId="4" shapeId="0" xr:uid="{87884DA3-B1B9-4680-BEC0-4466A0FC3B9D}">
+      <text>
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
     Served 235</t>
       </text>
     </comment>
-    <comment ref="P3" authorId="5" shapeId="0" xr:uid="{084C185F-359A-47CB-8453-17252A13655A}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+    <comment ref="R3" authorId="5" shapeId="0" xr:uid="{084C185F-359A-47CB-8453-17252A13655A}">
+      <text>
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
     Served 184</t>
       </text>
     </comment>
-    <comment ref="R3" authorId="6" shapeId="0" xr:uid="{F9D0DD2A-1D84-48D3-B3DF-A4E76EC8B54B}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+    <comment ref="T3" authorId="6" shapeId="0" xr:uid="{F9D0DD2A-1D84-48D3-B3DF-A4E76EC8B54B}">
+      <text>
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
     Served 287</t>
       </text>
     </comment>
     <comment ref="B4" authorId="7" shapeId="0" xr:uid="{AF9B15B0-D834-4F89-853B-23C2E75D7DD4}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
     Served 277</t>
       </text>
     </comment>
-    <comment ref="S4" authorId="8" shapeId="0" xr:uid="{B294B094-EA99-4846-AF83-A79A462110A4}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+    <comment ref="U4" authorId="8" shapeId="0" xr:uid="{B294B094-EA99-4846-AF83-A79A462110A4}">
+      <text>
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
     Served 193</t>
       </text>
     </comment>
-    <comment ref="Q5" authorId="9" shapeId="0" xr:uid="{A5DEED0A-3A05-41AD-9E1C-AFFF392CF348}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+    <comment ref="S5" authorId="9" shapeId="0" xr:uid="{A5DEED0A-3A05-41AD-9E1C-AFFF392CF348}">
+      <text>
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
     Served 320</t>
       </text>
     </comment>
     <comment ref="C6" authorId="10" shapeId="0" xr:uid="{5D5CA823-BE70-4241-97E4-9B5804712F6E}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
     Served 294</t>
       </text>
     </comment>
-    <comment ref="F6" authorId="11" shapeId="0" xr:uid="{B4DCF978-8BCB-4DC2-8F8C-9CA0F200257D}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+    <comment ref="H6" authorId="11" shapeId="0" xr:uid="{B4DCF978-8BCB-4DC2-8F8C-9CA0F200257D}">
+      <text>
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
     Served 242</t>
       </text>
     </comment>
-    <comment ref="S6" authorId="12" shapeId="0" xr:uid="{FB8AA8A6-C42A-45C9-92CC-032281E7B435}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+    <comment ref="U6" authorId="12" shapeId="0" xr:uid="{FB8AA8A6-C42A-45C9-92CC-032281E7B435}">
+      <text>
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
     Served 212</t>
       </text>
     </comment>
     <comment ref="B7" authorId="13" shapeId="0" xr:uid="{B3FC1BB1-4C71-4195-9EF5-858E7947FB02}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
     Served 243</t>
       </text>
     </comment>
-    <comment ref="K7" authorId="14" shapeId="0" xr:uid="{53B4A9AE-E0E2-4005-A13B-61ED90FE9E86}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+    <comment ref="M7" authorId="14" shapeId="0" xr:uid="{53B4A9AE-E0E2-4005-A13B-61ED90FE9E86}">
+      <text>
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
     Served 322</t>
       </text>
     </comment>
-    <comment ref="P7" authorId="15" shapeId="0" xr:uid="{48963694-CC75-4F99-A8CA-4C0ED0B1028F}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+    <comment ref="R7" authorId="15" shapeId="0" xr:uid="{48963694-CC75-4F99-A8CA-4C0ED0B1028F}">
+      <text>
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
     Served 187</t>
       </text>
     </comment>
     <comment ref="B8" authorId="16" shapeId="0" xr:uid="{74165A0C-D36C-46BC-839B-8E3BF747D165}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
     Served 243</t>
       </text>
     </comment>
-    <comment ref="H8" authorId="17" shapeId="0" xr:uid="{329D6885-E0A3-49A4-A29C-AEF3AE8F93FA}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+    <comment ref="J8" authorId="17" shapeId="0" xr:uid="{329D6885-E0A3-49A4-A29C-AEF3AE8F93FA}">
+      <text>
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
     Served 159</t>
       </text>
     </comment>
-    <comment ref="I8" authorId="18" shapeId="0" xr:uid="{CA77C906-9437-4455-B484-D8533473209F}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+    <comment ref="K8" authorId="18" shapeId="0" xr:uid="{CA77C906-9437-4455-B484-D8533473209F}">
+      <text>
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
     Served 194</t>
       </text>
     </comment>
-    <comment ref="J8" authorId="19" shapeId="0" xr:uid="{9C73A307-23B5-4336-8CD6-4EE61045C3C4}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+    <comment ref="L8" authorId="19" shapeId="0" xr:uid="{9C73A307-23B5-4336-8CD6-4EE61045C3C4}">
+      <text>
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
     Served 469</t>
       </text>
     </comment>
-    <comment ref="P8" authorId="20" shapeId="0" xr:uid="{46196591-DB9B-4BDE-8CE7-FA68403529B2}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+    <comment ref="R8" authorId="20" shapeId="0" xr:uid="{46196591-DB9B-4BDE-8CE7-FA68403529B2}">
+      <text>
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
     Served 177</t>
       </text>
     </comment>
     <comment ref="C9" authorId="21" shapeId="0" xr:uid="{F5C08B9D-9988-4988-BB2A-1E789C5AB9E7}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
     Served 296</t>
       </text>
     </comment>
-    <comment ref="M9" authorId="22" shapeId="0" xr:uid="{C04CAFBD-9CA4-4C18-9EB7-8834EF421446}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+    <comment ref="O9" authorId="22" shapeId="0" xr:uid="{C04CAFBD-9CA4-4C18-9EB7-8834EF421446}">
+      <text>
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
     Served 281</t>
       </text>
     </comment>
     <comment ref="B10" authorId="23" shapeId="0" xr:uid="{352E27AF-B550-4DA5-837C-D059A18E013D}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
     Served 254</t>
       </text>
     </comment>
     <comment ref="C10" authorId="24" shapeId="0" xr:uid="{245CA40C-0122-46DA-B33F-1DCE1EB4BA7D}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
     4/10 to 4/17 served numbers are all below 300.</t>
       </text>
     </comment>
-    <comment ref="K10" authorId="25" shapeId="0" xr:uid="{EA10F023-4987-4A5C-80FB-49EF917297B8}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+    <comment ref="M10" authorId="25" shapeId="0" xr:uid="{EA10F023-4987-4A5C-80FB-49EF917297B8}">
+      <text>
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
     Served 300</t>
       </text>
     </comment>
-    <comment ref="G12" authorId="26" shapeId="0" xr:uid="{D8998DCD-0E55-4CEF-A6DF-9B9058D4B11D}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+    <comment ref="I12" authorId="26" shapeId="0" xr:uid="{D8998DCD-0E55-4CEF-A6DF-9B9058D4B11D}">
+      <text>
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
     Served 194</t>
       </text>
     </comment>
-    <comment ref="H12" authorId="27" shapeId="0" xr:uid="{3E9D7119-8BB1-4CEB-B791-72B22E7ED695}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+    <comment ref="J12" authorId="27" shapeId="0" xr:uid="{3E9D7119-8BB1-4CEB-B791-72B22E7ED695}">
+      <text>
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
     Served 179</t>
       </text>
     </comment>
-    <comment ref="J12" authorId="28" shapeId="0" xr:uid="{A1B0213E-CDBC-4196-A482-272A87C616DB}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+    <comment ref="L12" authorId="28" shapeId="0" xr:uid="{A1B0213E-CDBC-4196-A482-272A87C616DB}">
+      <text>
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
     Served 492</t>
       </text>
     </comment>
-    <comment ref="P12" authorId="29" shapeId="0" xr:uid="{E91F9D69-044C-4670-8070-82DAA12D5984}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+    <comment ref="R12" authorId="29" shapeId="0" xr:uid="{E91F9D69-044C-4670-8070-82DAA12D5984}">
+      <text>
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
     Served 174</t>
       </text>
     </comment>
-    <comment ref="N13" authorId="30" shapeId="0" xr:uid="{3CA71555-CAD9-4E91-839E-1CC35084813F}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+    <comment ref="P13" authorId="30" shapeId="0" xr:uid="{3CA71555-CAD9-4E91-839E-1CC35084813F}">
+      <text>
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
     Served 222</t>
       </text>
     </comment>
     <comment ref="C15" authorId="31" shapeId="0" xr:uid="{97C8F37D-5AE2-4055-9A88-9F9E35BEB8FA}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
     4/10 to 4/17 served numbers are all below 300.</t>
       </text>
     </comment>
-    <comment ref="I16" authorId="32" shapeId="0" xr:uid="{22982F9B-C055-464E-874C-61DE166F9472}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+    <comment ref="K16" authorId="32" shapeId="0" xr:uid="{22982F9B-C055-464E-874C-61DE166F9472}">
+      <text>
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
     Served 248</t>
       </text>
     </comment>
     <comment ref="C17" authorId="33" shapeId="0" xr:uid="{714EDBF6-8074-4378-B5CB-F19EFEAA2B6E}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
     Served 168</t>
       </text>
     </comment>
-    <comment ref="G17" authorId="34" shapeId="0" xr:uid="{35411C99-6C54-4589-8B6F-7CFE83023F66}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+    <comment ref="I17" authorId="34" shapeId="0" xr:uid="{35411C99-6C54-4589-8B6F-7CFE83023F66}">
+      <text>
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
     Served 196</t>
       </text>
     </comment>
-    <comment ref="O17" authorId="35" shapeId="0" xr:uid="{5459FC65-251F-4F45-8090-D8A00BAC7F70}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+    <comment ref="Q17" authorId="35" shapeId="0" xr:uid="{5459FC65-251F-4F45-8090-D8A00BAC7F70}">
+      <text>
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
     Served 231</t>
       </text>
     </comment>
-    <comment ref="Q17" authorId="36" shapeId="0" xr:uid="{85FFFD0A-0D39-4EFC-A834-F5543E5EE210}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+    <comment ref="S17" authorId="36" shapeId="0" xr:uid="{85FFFD0A-0D39-4EFC-A834-F5543E5EE210}">
+      <text>
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
     Served 310</t>
       </text>
     </comment>
     <comment ref="C18" authorId="37" shapeId="0" xr:uid="{F91F21BB-5D47-431E-B1AA-495B268BAD13}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
     Served 270</t>
       </text>
     </comment>
-    <comment ref="G18" authorId="38" shapeId="0" xr:uid="{92A98BCC-DAD4-46ED-81D9-BD157451FCCA}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+    <comment ref="I18" authorId="38" shapeId="0" xr:uid="{92A98BCC-DAD4-46ED-81D9-BD157451FCCA}">
+      <text>
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
     Served 184</t>
       </text>
     </comment>
-    <comment ref="O18" authorId="39" shapeId="0" xr:uid="{1EAC2685-0098-450A-88FF-79652247373B}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+    <comment ref="Q18" authorId="39" shapeId="0" xr:uid="{1EAC2685-0098-450A-88FF-79652247373B}">
+      <text>
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
     Served 397</t>
       </text>
     </comment>
-    <comment ref="Q18" authorId="40" shapeId="0" xr:uid="{56259214-1669-4AF8-86FC-FD14CF166F63}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+    <comment ref="S18" authorId="40" shapeId="0" xr:uid="{56259214-1669-4AF8-86FC-FD14CF166F63}">
+      <text>
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
     Served 310</t>
       </text>
     </comment>
-    <comment ref="O22" authorId="41" shapeId="0" xr:uid="{E18858E1-81D6-4938-BE74-929CB8CF6635}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+    <comment ref="Q22" authorId="41" shapeId="0" xr:uid="{E18858E1-81D6-4938-BE74-929CB8CF6635}">
+      <text>
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
     Served 330</t>
       </text>
     </comment>
-    <comment ref="H23" authorId="42" shapeId="0" xr:uid="{2BBBCC7D-71EF-4D6A-9DB7-49D063DE4236}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+    <comment ref="J23" authorId="42" shapeId="0" xr:uid="{2BBBCC7D-71EF-4D6A-9DB7-49D063DE4236}">
+      <text>
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
     Served 178</t>
       </text>
     </comment>
-    <comment ref="N23" authorId="43" shapeId="0" xr:uid="{807887DA-8073-4B0E-AEA8-665B7F503F18}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+    <comment ref="P23" authorId="43" shapeId="0" xr:uid="{807887DA-8073-4B0E-AEA8-665B7F503F18}">
+      <text>
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
     Served 211</t>
       </text>
     </comment>
-    <comment ref="O23" authorId="44" shapeId="0" xr:uid="{CE8F9279-E536-4430-AEBE-BFEB1E755354}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+    <comment ref="Q23" authorId="44" shapeId="0" xr:uid="{CE8F9279-E536-4430-AEBE-BFEB1E755354}">
+      <text>
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
     Served 465</t>
       </text>
     </comment>
-    <comment ref="P23" authorId="45" shapeId="0" xr:uid="{24E2076D-C92B-47CD-94C4-907F2620D21B}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+    <comment ref="R23" authorId="45" shapeId="0" xr:uid="{24E2076D-C92B-47CD-94C4-907F2620D21B}">
+      <text>
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
     Served 182</t>
       </text>
     </comment>
-    <comment ref="S24" authorId="46" shapeId="0" xr:uid="{87B9AEA1-6D49-4A67-8D2E-4E369600E63F}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+    <comment ref="U24" authorId="46" shapeId="0" xr:uid="{87B9AEA1-6D49-4A67-8D2E-4E369600E63F}">
+      <text>
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
     Served 274</t>
       </text>
     </comment>
@@ -491,97 +491,97 @@
   <commentList>
     <comment ref="C3" authorId="0" shapeId="0" xr:uid="{6BD7367B-1A7C-479F-8DF9-6868AA0F4619}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
     Served 120</t>
       </text>
     </comment>
     <comment ref="C4" authorId="1" shapeId="0" xr:uid="{7B5A83EB-ABB0-4298-8215-F8BB16724411}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
     Served 119</t>
       </text>
     </comment>
     <comment ref="C5" authorId="2" shapeId="0" xr:uid="{02B2F7F9-A645-4B5F-9FF9-6EC12A1B54C7}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
     Served 132</t>
       </text>
     </comment>
     <comment ref="B8" authorId="3" shapeId="0" xr:uid="{5D59A9C1-8264-4767-8F9A-87596C19A347}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
     Served 19</t>
       </text>
     </comment>
     <comment ref="B9" authorId="4" shapeId="0" xr:uid="{C2A3F1F8-FA0E-4FF7-B55F-A64AACE97015}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
     Served 20</t>
       </text>
     </comment>
     <comment ref="B13" authorId="5" shapeId="0" xr:uid="{4B15D4D6-0DE0-497E-B2FA-6610BC913390}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
     Served 29</t>
       </text>
     </comment>
     <comment ref="B14" authorId="6" shapeId="0" xr:uid="{8D39EF45-6F5D-4055-BADA-87640FA962B0}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
     Served 16</t>
       </text>
     </comment>
     <comment ref="B22" authorId="7" shapeId="0" xr:uid="{D41E296B-B466-4645-BC4C-648DC5C889D6}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
     Leslie's sheet missing number for 4/26</t>
       </text>
     </comment>
     <comment ref="C22" authorId="8" shapeId="0" xr:uid="{D4079404-4FB8-45E2-8C13-5476FFF2D939}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
     Leslie's sheet missing number for 4/26</t>
       </text>
     </comment>
     <comment ref="B27" authorId="9" shapeId="0" xr:uid="{1D03369C-D0BB-4EEB-AF10-0074655AF726}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
     They served around 30 every day but ordered 50.</t>
       </text>
     </comment>
     <comment ref="C27" authorId="10" shapeId="0" xr:uid="{59D83C5E-CD66-4A19-9594-11DAC9E8D3EA}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
     Their lunch served more than ordered, do they use breakfast for lunch serve?</t>
       </text>
     </comment>
     <comment ref="E28" authorId="11" shapeId="0" xr:uid="{A1741F26-B7D6-439B-8404-430500AB325C}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
     Flossmoor district lunch always serve less than ordered</t>
       </text>
     </comment>
@@ -637,329 +637,329 @@
   <commentList>
     <comment ref="B4" authorId="0" shapeId="0" xr:uid="{8B46C9BA-D2B3-4CCB-BC39-9979677C41DD}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
     Served 31</t>
       </text>
     </comment>
     <comment ref="C4" authorId="1" shapeId="0" xr:uid="{C69AB623-9964-406E-AD6F-6EC81A4123BA}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
     Served 98</t>
       </text>
     </comment>
     <comment ref="F4" authorId="2" shapeId="0" xr:uid="{45948F71-0AB3-4050-8D87-9358AFC28586}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
     Served 28</t>
       </text>
     </comment>
     <comment ref="G4" authorId="3" shapeId="0" xr:uid="{1AE16998-789B-4D96-AF84-844306100B5C}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
     Served 155</t>
       </text>
     </comment>
     <comment ref="N4" authorId="4" shapeId="0" xr:uid="{51FB9FA2-9274-4B6C-96AF-20075CF728B5}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
     Served 34</t>
       </text>
     </comment>
     <comment ref="B5" authorId="5" shapeId="0" xr:uid="{AD418BB4-2355-4FE3-B41F-EB689BCD41CC}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
     Served 34</t>
       </text>
     </comment>
     <comment ref="D5" authorId="6" shapeId="0" xr:uid="{B790FF23-FD7E-43D1-81B8-4BF8DC0047DD}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
     Served 73</t>
       </text>
     </comment>
     <comment ref="E5" authorId="7" shapeId="0" xr:uid="{2E7907AE-AA2F-420F-840C-696BFE70017F}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
     Served 86</t>
       </text>
     </comment>
     <comment ref="F5" authorId="8" shapeId="0" xr:uid="{04C0E723-0889-4C3C-959A-B2A57B13BBC0}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
     Served 32</t>
       </text>
     </comment>
     <comment ref="F6" authorId="9" shapeId="0" xr:uid="{6EE7498E-175C-4BCC-B5CB-73D921F3B93B}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
     Served 37</t>
       </text>
     </comment>
     <comment ref="E8" authorId="10" shapeId="0" xr:uid="{C4A1A23C-9817-415A-83FB-5F71CC8C389D}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
     Served 79</t>
       </text>
     </comment>
     <comment ref="F8" authorId="11" shapeId="0" xr:uid="{E912BA10-A32E-4B73-8A6D-B983AFE2F338}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
     Served 28</t>
       </text>
     </comment>
     <comment ref="H8" authorId="12" shapeId="0" xr:uid="{29E8F430-2497-4805-A7DC-FBEB40A2E948}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
     Served 20</t>
       </text>
     </comment>
     <comment ref="I8" authorId="13" shapeId="0" xr:uid="{540C1D52-6A4A-44FE-9829-54900B4F49C4}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
     Served 49</t>
       </text>
     </comment>
     <comment ref="M8" authorId="14" shapeId="0" xr:uid="{C2E0DB3A-23E4-4063-8FA0-BE2CB51D201E}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
     Served 66</t>
       </text>
     </comment>
     <comment ref="E9" authorId="15" shapeId="0" xr:uid="{C6DDC9E8-D900-4E90-B80F-C34F890E8112}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
     Served 79</t>
       </text>
     </comment>
     <comment ref="N9" authorId="16" shapeId="0" xr:uid="{EE87CCEC-46E5-40BB-9DE5-DE1C93FDDB3B}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
     Served 35</t>
       </text>
     </comment>
     <comment ref="O9" authorId="17" shapeId="0" xr:uid="{928482CB-E22A-4D29-9F28-6C5C60D46242}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
     Served 77</t>
       </text>
     </comment>
     <comment ref="F10" authorId="18" shapeId="0" xr:uid="{2809E1DA-A86B-4328-83DE-4CFF7D4209DC}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
     Served 22</t>
       </text>
     </comment>
     <comment ref="J10" authorId="19" shapeId="0" xr:uid="{1ACD22A6-FB8F-49F7-88C0-36416615EDD0}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
     Served 83</t>
       </text>
     </comment>
     <comment ref="M10" authorId="20" shapeId="0" xr:uid="{ACBF6206-2A4D-4657-8DB5-C09A8DCC36F1}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
     Served 80</t>
       </text>
     </comment>
     <comment ref="C11" authorId="21" shapeId="0" xr:uid="{E69409F5-83AD-4650-BD81-0D48DA60A72F}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
     Served 90</t>
       </text>
     </comment>
     <comment ref="B12" authorId="22" shapeId="0" xr:uid="{299D8738-11F2-40B8-9AEA-0EFE2FA01E09}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
     Served 34</t>
       </text>
     </comment>
     <comment ref="C12" authorId="23" shapeId="0" xr:uid="{D57385CC-1F36-4BB3-A42B-F8FBD10C4218}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
     Served 89</t>
       </text>
     </comment>
     <comment ref="B13" authorId="24" shapeId="0" xr:uid="{95CA0F04-D6E1-48AD-B273-B39D525BB822}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
     Served 34</t>
       </text>
     </comment>
     <comment ref="C13" authorId="25" shapeId="0" xr:uid="{363BEB36-87B2-46B2-B631-5A493901ADD6}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
     Served 97</t>
       </text>
     </comment>
     <comment ref="E13" authorId="26" shapeId="0" xr:uid="{7A8DB99F-DBDC-4FB1-8EF0-F2C5318587EF}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
     Served 71</t>
       </text>
     </comment>
     <comment ref="F13" authorId="27" shapeId="0" xr:uid="{63B23252-1387-4C5F-ABEA-8C98D3897FCB}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
     Served 30</t>
       </text>
     </comment>
     <comment ref="G13" authorId="28" shapeId="0" xr:uid="{62F9426B-5DF8-41CA-B779-B145FF3505E9}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
     Served 142</t>
       </text>
     </comment>
     <comment ref="O13" authorId="29" shapeId="0" xr:uid="{346457A3-6936-47F2-B9E8-2981CC000731}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
     Served 83</t>
       </text>
     </comment>
     <comment ref="C14" authorId="30" shapeId="0" xr:uid="{7CECCCF0-6059-4E23-87AC-A63295BC70AF}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
     Served 97</t>
       </text>
     </comment>
     <comment ref="J16" authorId="31" shapeId="0" xr:uid="{3477FB91-9138-47D2-B426-E1A625C3C0C0}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
     Served 82</t>
       </text>
     </comment>
     <comment ref="C17" authorId="32" shapeId="0" xr:uid="{3814C9B1-C9F9-4FBD-848F-4303DBC10FF0}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
     Served 84</t>
       </text>
     </comment>
     <comment ref="G17" authorId="33" shapeId="0" xr:uid="{3956B577-899B-4507-943A-17BDEE008A8D}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
     Served 100</t>
       </text>
     </comment>
     <comment ref="O17" authorId="34" shapeId="0" xr:uid="{AE08E81E-E211-4547-8951-897FBE02A74F}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
     Served 83</t>
       </text>
     </comment>
     <comment ref="F18" authorId="35" shapeId="0" xr:uid="{BBEE08C8-9687-4278-AA78-794D04233C26}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
     Served 33</t>
       </text>
     </comment>
     <comment ref="N19" authorId="36" shapeId="0" xr:uid="{4737A0AF-D896-4364-A161-75612A688D64}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
     Served 45</t>
       </text>
     </comment>
     <comment ref="N20" authorId="37" shapeId="0" xr:uid="{EA6D0F5C-16F9-46FB-A9F4-EEE70F43E9BD}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
     Served 37</t>
       </text>
     </comment>
     <comment ref="E22" authorId="38" shapeId="0" xr:uid="{ADB770D7-F201-4241-8E08-FEF6FC3EE479}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
     Served 73</t>
       </text>
     </comment>
     <comment ref="O22" authorId="39" shapeId="0" xr:uid="{EB9B6293-CE5C-40BF-A9BB-CBDA096F4FB8}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
     Served 82</t>
       </text>
     </comment>
     <comment ref="B23" authorId="40" shapeId="0" xr:uid="{F808CE5D-DF08-4AA5-BE4D-86E9E8C62C97}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
     Served 30</t>
       </text>
     </comment>
@@ -981,57 +981,57 @@
   <commentList>
     <comment ref="B4" authorId="0" shapeId="0" xr:uid="{F4079EE0-211C-4E3F-AF33-30DDE15A7AA6}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
     Served 28</t>
       </text>
     </comment>
     <comment ref="B7" authorId="1" shapeId="0" xr:uid="{DA9AF992-E428-4C14-937F-EB7438EE3150}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
     Served 30</t>
       </text>
     </comment>
     <comment ref="C8" authorId="2" shapeId="0" xr:uid="{39FB3D10-92D4-4CC0-8D4B-778091ABB1DC}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
     Served 193</t>
       </text>
     </comment>
     <comment ref="B10" authorId="3" shapeId="0" xr:uid="{6C835CC4-7255-4B75-91C9-E2CB319DF89B}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
     Served 38</t>
       </text>
     </comment>
     <comment ref="C14" authorId="4" shapeId="0" xr:uid="{71C7CCE2-7551-4309-BAB2-E14CB98E7808}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
     Served 237</t>
       </text>
     </comment>
     <comment ref="B17" authorId="5" shapeId="0" xr:uid="{519DBD16-1F78-414F-8DF8-0A199750F6D5}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
     Served 27</t>
       </text>
     </comment>
     <comment ref="C21" authorId="6" shapeId="0" xr:uid="{98C019AF-B7E4-42C0-8FE5-CF09F67B35F7}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
     Served 239</t>
       </text>
     </comment>
@@ -1049,25 +1049,25 @@
   <commentList>
     <comment ref="B15" authorId="0" shapeId="0" xr:uid="{49E67D77-E2EC-4BF1-A7A8-E15BE9B050DA}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
     Served 59</t>
       </text>
     </comment>
     <comment ref="B16" authorId="1" shapeId="0" xr:uid="{9955A1A7-F545-45C3-AA12-75CFD5C6B55B}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
     Served 62</t>
       </text>
     </comment>
     <comment ref="B20" authorId="2" shapeId="0" xr:uid="{BBF4B07E-40C4-4A31-89C6-6A8064625625}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[线程批注]
+你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
+注释:
     Served 66</t>
       </text>
     </comment>
@@ -1076,7 +1076,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="46">
   <si>
     <t>2023-24</t>
   </si>
@@ -1209,16 +1209,23 @@
   <si>
     <t>DISCREPANCY (BREAD)</t>
   </si>
+  <si>
+    <t>Lunch Served</t>
+  </si>
+  <si>
+    <t>Breakfast Served</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1226,8 +1233,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1275,7 +1289,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1324,11 +1338,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1393,9 +1418,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1423,9 +1451,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主题">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1463,7 +1491,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1569,7 +1597,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1711,7 +1739,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1725,67 +1753,67 @@
   <threadedComment ref="C3" dT="2024-05-03T21:48:20.79" personId="{8AE241E1-9A89-43B7-A296-CD12DD76C46C}" id="{8C7488F7-F295-42A2-85E4-871119FC8BF3}">
     <text>Served 295</text>
   </threadedComment>
-  <threadedComment ref="F3" dT="2024-05-03T21:51:59.57" personId="{8AE241E1-9A89-43B7-A296-CD12DD76C46C}" id="{E7472301-F29A-4611-A142-952BF57254F4}">
+  <threadedComment ref="H3" dT="2024-05-03T21:51:59.57" personId="{8AE241E1-9A89-43B7-A296-CD12DD76C46C}" id="{E7472301-F29A-4611-A142-952BF57254F4}">
     <text>Served 191</text>
   </threadedComment>
-  <threadedComment ref="H3" dT="2024-05-03T21:58:27.81" personId="{8AE241E1-9A89-43B7-A296-CD12DD76C46C}" id="{E154E7C7-FC94-4059-B3A3-84D8854F9F69}">
+  <threadedComment ref="J3" dT="2024-05-03T21:58:27.81" personId="{8AE241E1-9A89-43B7-A296-CD12DD76C46C}" id="{E154E7C7-FC94-4059-B3A3-84D8854F9F69}">
     <text>Served 176</text>
   </threadedComment>
-  <threadedComment ref="I3" dT="2024-05-03T22:00:54.38" personId="{8AE241E1-9A89-43B7-A296-CD12DD76C46C}" id="{87884DA3-B1B9-4680-BEC0-4466A0FC3B9D}">
+  <threadedComment ref="K3" dT="2024-05-03T22:00:54.38" personId="{8AE241E1-9A89-43B7-A296-CD12DD76C46C}" id="{87884DA3-B1B9-4680-BEC0-4466A0FC3B9D}">
     <text>Served 235</text>
   </threadedComment>
-  <threadedComment ref="P3" dT="2024-05-03T22:40:53.44" personId="{8AE241E1-9A89-43B7-A296-CD12DD76C46C}" id="{084C185F-359A-47CB-8453-17252A13655A}">
+  <threadedComment ref="R3" dT="2024-05-03T22:40:53.44" personId="{8AE241E1-9A89-43B7-A296-CD12DD76C46C}" id="{084C185F-359A-47CB-8453-17252A13655A}">
     <text>Served 184</text>
   </threadedComment>
-  <threadedComment ref="R3" dT="2024-05-03T22:47:43.27" personId="{8AE241E1-9A89-43B7-A296-CD12DD76C46C}" id="{F9D0DD2A-1D84-48D3-B3DF-A4E76EC8B54B}">
+  <threadedComment ref="T3" dT="2024-05-03T22:47:43.27" personId="{8AE241E1-9A89-43B7-A296-CD12DD76C46C}" id="{F9D0DD2A-1D84-48D3-B3DF-A4E76EC8B54B}">
     <text>Served 287</text>
   </threadedComment>
   <threadedComment ref="B4" dT="2024-05-03T21:44:00.31" personId="{8AE241E1-9A89-43B7-A296-CD12DD76C46C}" id="{AF9B15B0-D834-4F89-853B-23C2E75D7DD4}">
     <text>Served 277</text>
   </threadedComment>
-  <threadedComment ref="S4" dT="2024-05-03T22:53:01.02" personId="{8AE241E1-9A89-43B7-A296-CD12DD76C46C}" id="{B294B094-EA99-4846-AF83-A79A462110A4}">
+  <threadedComment ref="U4" dT="2024-05-03T22:53:01.02" personId="{8AE241E1-9A89-43B7-A296-CD12DD76C46C}" id="{B294B094-EA99-4846-AF83-A79A462110A4}">
     <text>Served 193</text>
   </threadedComment>
-  <threadedComment ref="Q5" dT="2024-05-03T22:44:25.70" personId="{8AE241E1-9A89-43B7-A296-CD12DD76C46C}" id="{A5DEED0A-3A05-41AD-9E1C-AFFF392CF348}">
+  <threadedComment ref="S5" dT="2024-05-03T22:44:25.70" personId="{8AE241E1-9A89-43B7-A296-CD12DD76C46C}" id="{A5DEED0A-3A05-41AD-9E1C-AFFF392CF348}">
     <text>Served 320</text>
   </threadedComment>
   <threadedComment ref="C6" dT="2024-05-03T21:48:33.39" personId="{8AE241E1-9A89-43B7-A296-CD12DD76C46C}" id="{5D5CA823-BE70-4241-97E4-9B5804712F6E}">
     <text>Served 294</text>
   </threadedComment>
-  <threadedComment ref="F6" dT="2024-05-03T21:54:07.02" personId="{8AE241E1-9A89-43B7-A296-CD12DD76C46C}" id="{B4DCF978-8BCB-4DC2-8F8C-9CA0F200257D}">
+  <threadedComment ref="H6" dT="2024-05-03T21:54:07.02" personId="{8AE241E1-9A89-43B7-A296-CD12DD76C46C}" id="{B4DCF978-8BCB-4DC2-8F8C-9CA0F200257D}">
     <text>Served 242</text>
   </threadedComment>
-  <threadedComment ref="S6" dT="2024-05-03T22:53:21.97" personId="{8AE241E1-9A89-43B7-A296-CD12DD76C46C}" id="{FB8AA8A6-C42A-45C9-92CC-032281E7B435}">
+  <threadedComment ref="U6" dT="2024-05-03T22:53:21.97" personId="{8AE241E1-9A89-43B7-A296-CD12DD76C46C}" id="{FB8AA8A6-C42A-45C9-92CC-032281E7B435}">
     <text>Served 212</text>
   </threadedComment>
   <threadedComment ref="B7" dT="2024-05-03T21:45:42.42" personId="{8AE241E1-9A89-43B7-A296-CD12DD76C46C}" id="{B3FC1BB1-4C71-4195-9EF5-858E7947FB02}">
     <text>Served 243</text>
   </threadedComment>
-  <threadedComment ref="K7" dT="2024-05-03T22:08:27.10" personId="{8AE241E1-9A89-43B7-A296-CD12DD76C46C}" id="{53B4A9AE-E0E2-4005-A13B-61ED90FE9E86}">
+  <threadedComment ref="M7" dT="2024-05-03T22:08:27.10" personId="{8AE241E1-9A89-43B7-A296-CD12DD76C46C}" id="{53B4A9AE-E0E2-4005-A13B-61ED90FE9E86}">
     <text>Served 322</text>
   </threadedComment>
-  <threadedComment ref="P7" dT="2024-05-03T22:40:45.22" personId="{8AE241E1-9A89-43B7-A296-CD12DD76C46C}" id="{48963694-CC75-4F99-A8CA-4C0ED0B1028F}">
+  <threadedComment ref="R7" dT="2024-05-03T22:40:45.22" personId="{8AE241E1-9A89-43B7-A296-CD12DD76C46C}" id="{48963694-CC75-4F99-A8CA-4C0ED0B1028F}">
     <text>Served 187</text>
   </threadedComment>
   <threadedComment ref="B8" dT="2024-05-03T21:45:51.45" personId="{8AE241E1-9A89-43B7-A296-CD12DD76C46C}" id="{74165A0C-D36C-46BC-839B-8E3BF747D165}">
     <text>Served 243</text>
   </threadedComment>
-  <threadedComment ref="H8" dT="2024-05-03T21:58:46.08" personId="{8AE241E1-9A89-43B7-A296-CD12DD76C46C}" id="{329D6885-E0A3-49A4-A29C-AEF3AE8F93FA}">
+  <threadedComment ref="J8" dT="2024-05-03T21:58:46.08" personId="{8AE241E1-9A89-43B7-A296-CD12DD76C46C}" id="{329D6885-E0A3-49A4-A29C-AEF3AE8F93FA}">
     <text>Served 159</text>
   </threadedComment>
-  <threadedComment ref="I8" dT="2024-05-03T22:01:36.04" personId="{8AE241E1-9A89-43B7-A296-CD12DD76C46C}" id="{CA77C906-9437-4455-B484-D8533473209F}">
+  <threadedComment ref="K8" dT="2024-05-03T22:01:36.04" personId="{8AE241E1-9A89-43B7-A296-CD12DD76C46C}" id="{CA77C906-9437-4455-B484-D8533473209F}">
     <text>Served 194</text>
   </threadedComment>
-  <threadedComment ref="J8" dT="2024-05-03T22:04:45.05" personId="{8AE241E1-9A89-43B7-A296-CD12DD76C46C}" id="{9C73A307-23B5-4336-8CD6-4EE61045C3C4}">
+  <threadedComment ref="L8" dT="2024-05-03T22:04:45.05" personId="{8AE241E1-9A89-43B7-A296-CD12DD76C46C}" id="{9C73A307-23B5-4336-8CD6-4EE61045C3C4}">
     <text>Served 469</text>
   </threadedComment>
-  <threadedComment ref="P8" dT="2024-05-03T22:40:27.78" personId="{8AE241E1-9A89-43B7-A296-CD12DD76C46C}" id="{46196591-DB9B-4BDE-8CE7-FA68403529B2}">
+  <threadedComment ref="R8" dT="2024-05-03T22:40:27.78" personId="{8AE241E1-9A89-43B7-A296-CD12DD76C46C}" id="{46196591-DB9B-4BDE-8CE7-FA68403529B2}">
     <text>Served 177</text>
   </threadedComment>
   <threadedComment ref="C9" dT="2024-05-03T21:48:48.26" personId="{8AE241E1-9A89-43B7-A296-CD12DD76C46C}" id="{F5C08B9D-9988-4988-BB2A-1E789C5AB9E7}">
     <text>Served 296</text>
   </threadedComment>
-  <threadedComment ref="M9" dT="2024-05-03T22:13:30.16" personId="{8AE241E1-9A89-43B7-A296-CD12DD76C46C}" id="{C04CAFBD-9CA4-4C18-9EB7-8834EF421446}">
+  <threadedComment ref="O9" dT="2024-05-03T22:13:30.16" personId="{8AE241E1-9A89-43B7-A296-CD12DD76C46C}" id="{C04CAFBD-9CA4-4C18-9EB7-8834EF421446}">
     <text>Served 281</text>
   </threadedComment>
   <threadedComment ref="B10" dT="2024-05-03T21:46:08.63" personId="{8AE241E1-9A89-43B7-A296-CD12DD76C46C}" id="{352E27AF-B550-4DA5-837C-D059A18E013D}">
@@ -1794,70 +1822,70 @@
   <threadedComment ref="C10" dT="2024-05-03T21:49:37.66" personId="{8AE241E1-9A89-43B7-A296-CD12DD76C46C}" id="{245CA40C-0122-46DA-B33F-1DCE1EB4BA7D}">
     <text>4/10 to 4/17 served numbers are all below 300.</text>
   </threadedComment>
-  <threadedComment ref="K10" dT="2024-05-03T22:07:56.45" personId="{8AE241E1-9A89-43B7-A296-CD12DD76C46C}" id="{EA10F023-4987-4A5C-80FB-49EF917297B8}">
+  <threadedComment ref="M10" dT="2024-05-03T22:07:56.45" personId="{8AE241E1-9A89-43B7-A296-CD12DD76C46C}" id="{EA10F023-4987-4A5C-80FB-49EF917297B8}">
     <text>Served 300</text>
   </threadedComment>
-  <threadedComment ref="G12" dT="2024-05-03T21:55:44.43" personId="{8AE241E1-9A89-43B7-A296-CD12DD76C46C}" id="{D8998DCD-0E55-4CEF-A6DF-9B9058D4B11D}">
+  <threadedComment ref="I12" dT="2024-05-03T21:55:44.43" personId="{8AE241E1-9A89-43B7-A296-CD12DD76C46C}" id="{D8998DCD-0E55-4CEF-A6DF-9B9058D4B11D}">
     <text>Served 194</text>
   </threadedComment>
-  <threadedComment ref="H12" dT="2024-05-03T21:58:59.59" personId="{8AE241E1-9A89-43B7-A296-CD12DD76C46C}" id="{3E9D7119-8BB1-4CEB-B791-72B22E7ED695}">
+  <threadedComment ref="J12" dT="2024-05-03T21:58:59.59" personId="{8AE241E1-9A89-43B7-A296-CD12DD76C46C}" id="{3E9D7119-8BB1-4CEB-B791-72B22E7ED695}">
     <text>Served 179</text>
   </threadedComment>
-  <threadedComment ref="J12" dT="2024-05-03T22:05:07.49" personId="{8AE241E1-9A89-43B7-A296-CD12DD76C46C}" id="{A1B0213E-CDBC-4196-A482-272A87C616DB}">
+  <threadedComment ref="L12" dT="2024-05-03T22:05:07.49" personId="{8AE241E1-9A89-43B7-A296-CD12DD76C46C}" id="{A1B0213E-CDBC-4196-A482-272A87C616DB}">
     <text>Served 492</text>
   </threadedComment>
-  <threadedComment ref="P12" dT="2024-05-03T22:41:10.55" personId="{8AE241E1-9A89-43B7-A296-CD12DD76C46C}" id="{E91F9D69-044C-4670-8070-82DAA12D5984}">
+  <threadedComment ref="R12" dT="2024-05-03T22:41:10.55" personId="{8AE241E1-9A89-43B7-A296-CD12DD76C46C}" id="{E91F9D69-044C-4670-8070-82DAA12D5984}">
     <text>Served 174</text>
   </threadedComment>
-  <threadedComment ref="N13" dT="2024-05-03T22:28:59.99" personId="{8AE241E1-9A89-43B7-A296-CD12DD76C46C}" id="{3CA71555-CAD9-4E91-839E-1CC35084813F}">
+  <threadedComment ref="P13" dT="2024-05-03T22:28:59.99" personId="{8AE241E1-9A89-43B7-A296-CD12DD76C46C}" id="{3CA71555-CAD9-4E91-839E-1CC35084813F}">
     <text>Served 222</text>
   </threadedComment>
   <threadedComment ref="C15" dT="2024-05-03T21:50:02.03" personId="{8AE241E1-9A89-43B7-A296-CD12DD76C46C}" id="{97C8F37D-5AE2-4055-9A88-9F9E35BEB8FA}">
     <text>4/10 to 4/17 served numbers are all below 300.</text>
   </threadedComment>
-  <threadedComment ref="I16" dT="2024-05-03T22:01:20.04" personId="{8AE241E1-9A89-43B7-A296-CD12DD76C46C}" id="{22982F9B-C055-464E-874C-61DE166F9472}">
+  <threadedComment ref="K16" dT="2024-05-03T22:01:20.04" personId="{8AE241E1-9A89-43B7-A296-CD12DD76C46C}" id="{22982F9B-C055-464E-874C-61DE166F9472}">
     <text>Served 248</text>
   </threadedComment>
   <threadedComment ref="C17" dT="2024-05-03T21:50:17.12" personId="{8AE241E1-9A89-43B7-A296-CD12DD76C46C}" id="{714EDBF6-8074-4378-B5CB-F19EFEAA2B6E}">
     <text>Served 168</text>
   </threadedComment>
-  <threadedComment ref="G17" dT="2024-05-03T21:56:00.32" personId="{8AE241E1-9A89-43B7-A296-CD12DD76C46C}" id="{35411C99-6C54-4589-8B6F-7CFE83023F66}">
+  <threadedComment ref="I17" dT="2024-05-03T21:56:00.32" personId="{8AE241E1-9A89-43B7-A296-CD12DD76C46C}" id="{35411C99-6C54-4589-8B6F-7CFE83023F66}">
     <text>Served 196</text>
   </threadedComment>
-  <threadedComment ref="O17" dT="2024-05-03T22:36:28.75" personId="{8AE241E1-9A89-43B7-A296-CD12DD76C46C}" id="{5459FC65-251F-4F45-8090-D8A00BAC7F70}">
+  <threadedComment ref="Q17" dT="2024-05-03T22:36:28.75" personId="{8AE241E1-9A89-43B7-A296-CD12DD76C46C}" id="{5459FC65-251F-4F45-8090-D8A00BAC7F70}">
     <text>Served 231</text>
   </threadedComment>
-  <threadedComment ref="Q17" dT="2024-05-03T22:44:42.24" personId="{8AE241E1-9A89-43B7-A296-CD12DD76C46C}" id="{85FFFD0A-0D39-4EFC-A834-F5543E5EE210}">
+  <threadedComment ref="S17" dT="2024-05-03T22:44:42.24" personId="{8AE241E1-9A89-43B7-A296-CD12DD76C46C}" id="{85FFFD0A-0D39-4EFC-A834-F5543E5EE210}">
     <text>Served 310</text>
   </threadedComment>
   <threadedComment ref="C18" dT="2024-05-03T21:50:27.85" personId="{8AE241E1-9A89-43B7-A296-CD12DD76C46C}" id="{F91F21BB-5D47-431E-B1AA-495B268BAD13}">
     <text>Served 270</text>
   </threadedComment>
-  <threadedComment ref="G18" dT="2024-05-03T21:56:11.11" personId="{8AE241E1-9A89-43B7-A296-CD12DD76C46C}" id="{92A98BCC-DAD4-46ED-81D9-BD157451FCCA}">
+  <threadedComment ref="I18" dT="2024-05-03T21:56:11.11" personId="{8AE241E1-9A89-43B7-A296-CD12DD76C46C}" id="{92A98BCC-DAD4-46ED-81D9-BD157451FCCA}">
     <text>Served 184</text>
   </threadedComment>
-  <threadedComment ref="O18" dT="2024-05-03T22:36:37.18" personId="{8AE241E1-9A89-43B7-A296-CD12DD76C46C}" id="{1EAC2685-0098-450A-88FF-79652247373B}">
+  <threadedComment ref="Q18" dT="2024-05-03T22:36:37.18" personId="{8AE241E1-9A89-43B7-A296-CD12DD76C46C}" id="{1EAC2685-0098-450A-88FF-79652247373B}">
     <text>Served 397</text>
   </threadedComment>
-  <threadedComment ref="Q18" dT="2024-05-03T22:44:53.60" personId="{8AE241E1-9A89-43B7-A296-CD12DD76C46C}" id="{56259214-1669-4AF8-86FC-FD14CF166F63}">
+  <threadedComment ref="S18" dT="2024-05-03T22:44:53.60" personId="{8AE241E1-9A89-43B7-A296-CD12DD76C46C}" id="{56259214-1669-4AF8-86FC-FD14CF166F63}">
     <text>Served 310</text>
   </threadedComment>
-  <threadedComment ref="O22" dT="2024-05-03T22:36:46.24" personId="{8AE241E1-9A89-43B7-A296-CD12DD76C46C}" id="{E18858E1-81D6-4938-BE74-929CB8CF6635}">
+  <threadedComment ref="Q22" dT="2024-05-03T22:36:46.24" personId="{8AE241E1-9A89-43B7-A296-CD12DD76C46C}" id="{E18858E1-81D6-4938-BE74-929CB8CF6635}">
     <text>Served 330</text>
   </threadedComment>
-  <threadedComment ref="H23" dT="2024-05-03T21:59:15.56" personId="{8AE241E1-9A89-43B7-A296-CD12DD76C46C}" id="{2BBBCC7D-71EF-4D6A-9DB7-49D063DE4236}">
+  <threadedComment ref="J23" dT="2024-05-03T21:59:15.56" personId="{8AE241E1-9A89-43B7-A296-CD12DD76C46C}" id="{2BBBCC7D-71EF-4D6A-9DB7-49D063DE4236}">
     <text>Served 178</text>
   </threadedComment>
-  <threadedComment ref="N23" dT="2024-05-03T22:28:41.00" personId="{8AE241E1-9A89-43B7-A296-CD12DD76C46C}" id="{807887DA-8073-4B0E-AEA8-665B7F503F18}">
+  <threadedComment ref="P23" dT="2024-05-03T22:28:41.00" personId="{8AE241E1-9A89-43B7-A296-CD12DD76C46C}" id="{807887DA-8073-4B0E-AEA8-665B7F503F18}">
     <text>Served 211</text>
   </threadedComment>
-  <threadedComment ref="O23" dT="2024-05-03T22:36:56.01" personId="{8AE241E1-9A89-43B7-A296-CD12DD76C46C}" id="{CE8F9279-E536-4430-AEBE-BFEB1E755354}">
+  <threadedComment ref="Q23" dT="2024-05-03T22:36:56.01" personId="{8AE241E1-9A89-43B7-A296-CD12DD76C46C}" id="{CE8F9279-E536-4430-AEBE-BFEB1E755354}">
     <text>Served 465</text>
   </threadedComment>
-  <threadedComment ref="P23" dT="2024-05-03T22:41:32.22" personId="{8AE241E1-9A89-43B7-A296-CD12DD76C46C}" id="{24E2076D-C92B-47CD-94C4-907F2620D21B}">
+  <threadedComment ref="R23" dT="2024-05-03T22:41:32.22" personId="{8AE241E1-9A89-43B7-A296-CD12DD76C46C}" id="{24E2076D-C92B-47CD-94C4-907F2620D21B}">
     <text>Served 182</text>
   </threadedComment>
-  <threadedComment ref="S24" dT="2024-05-03T22:53:46.45" personId="{8AE241E1-9A89-43B7-A296-CD12DD76C46C}" id="{87B9AEA1-6D49-4A67-8D2E-4E369600E63F}">
+  <threadedComment ref="U24" dT="2024-05-03T22:53:46.45" personId="{8AE241E1-9A89-43B7-A296-CD12DD76C46C}" id="{87B9AEA1-6D49-4A67-8D2E-4E369600E63F}">
     <text>Served 274</text>
   </threadedComment>
 </ThreadedComments>
@@ -2077,63 +2105,66 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:U35"/>
+  <dimension ref="A1:W35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P29" sqref="P29"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26" style="23" customWidth="1"/>
+    <col min="4" max="5" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="26" t="s">
-        <v>2</v>
-      </c>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
       <c r="E1" s="27"/>
       <c r="F1" s="26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G1" s="27"/>
       <c r="H1" s="26" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I1" s="27"/>
       <c r="J1" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K1" s="27"/>
       <c r="L1" s="26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M1" s="27"/>
       <c r="N1" s="26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O1" s="27"/>
       <c r="P1" s="26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q1" s="27"/>
       <c r="R1" s="26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="S1" s="27"/>
       <c r="T1" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="U1" s="27"/>
+      <c r="V1" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="U1" s="27"/>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="W1" s="27"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>10</v>
       </c>
@@ -2143,11 +2174,11 @@
       <c r="C2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>12</v>
+      <c r="D2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>11</v>
@@ -2197,8 +2228,14 @@
       <c r="U2" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="15">
         <v>45383</v>
       </c>
@@ -2208,62 +2245,68 @@
       <c r="C3" s="10">
         <v>307</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3">
+        <v>270</v>
+      </c>
+      <c r="E3">
+        <v>295</v>
+      </c>
+      <c r="F3" s="2">
         <v>250</v>
       </c>
-      <c r="E3" s="2">
+      <c r="G3" s="2">
         <v>220</v>
       </c>
-      <c r="F3" s="10">
+      <c r="H3" s="10">
         <v>240</v>
       </c>
-      <c r="G3" s="2">
+      <c r="I3" s="2">
         <v>230</v>
       </c>
-      <c r="H3" s="10">
+      <c r="J3" s="10">
         <v>220</v>
       </c>
-      <c r="I3" s="10">
+      <c r="K3" s="10">
         <v>230</v>
       </c>
-      <c r="J3" s="2">
+      <c r="L3" s="2">
         <v>520</v>
       </c>
-      <c r="K3" s="2">
+      <c r="M3" s="2">
         <v>380</v>
-      </c>
-      <c r="L3" s="2">
-        <v>250</v>
-      </c>
-      <c r="M3" s="2">
-        <v>400</v>
       </c>
       <c r="N3" s="2">
         <v>250</v>
       </c>
       <c r="O3" s="2">
+        <v>400</v>
+      </c>
+      <c r="P3" s="2">
+        <v>250</v>
+      </c>
+      <c r="Q3" s="2">
         <v>450</v>
       </c>
-      <c r="P3" s="10">
+      <c r="R3" s="10">
         <v>230</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="S3" s="2">
         <v>251</v>
       </c>
-      <c r="R3" s="10">
+      <c r="T3" s="10">
         <v>330</v>
       </c>
-      <c r="S3" s="2">
+      <c r="U3" s="2">
         <v>230</v>
       </c>
-      <c r="T3" s="2">
+      <c r="V3" s="2">
         <v>43</v>
       </c>
-      <c r="U3" s="2">
+      <c r="W3" s="2">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="15">
         <v>45384</v>
       </c>
@@ -2273,62 +2316,68 @@
       <c r="C4" s="2">
         <v>274</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4">
+        <v>277</v>
+      </c>
+      <c r="E4">
+        <v>304</v>
+      </c>
+      <c r="F4" s="2">
         <v>250</v>
       </c>
-      <c r="E4" s="2">
+      <c r="G4" s="2">
         <v>220</v>
       </c>
-      <c r="F4" s="2">
+      <c r="H4" s="2">
         <v>240</v>
       </c>
-      <c r="G4" s="2">
+      <c r="I4" s="2">
         <v>230</v>
       </c>
-      <c r="H4" s="2">
+      <c r="J4" s="2">
         <v>220</v>
       </c>
-      <c r="I4" s="10">
+      <c r="K4" s="10">
         <v>230</v>
       </c>
-      <c r="J4" s="2">
+      <c r="L4" s="2">
         <v>520</v>
       </c>
-      <c r="K4" s="2">
+      <c r="M4" s="2">
         <v>380</v>
-      </c>
-      <c r="L4" s="2">
-        <v>250</v>
-      </c>
-      <c r="M4" s="2">
-        <v>405</v>
       </c>
       <c r="N4" s="2">
         <v>250</v>
       </c>
       <c r="O4" s="2">
+        <v>405</v>
+      </c>
+      <c r="P4" s="2">
+        <v>250</v>
+      </c>
+      <c r="Q4" s="2">
         <v>450</v>
       </c>
-      <c r="P4" s="2">
+      <c r="R4" s="2">
         <v>230</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="S4" s="2">
         <v>196</v>
       </c>
-      <c r="R4" s="2">
+      <c r="T4" s="2">
         <v>330</v>
       </c>
-      <c r="S4" s="10">
+      <c r="U4" s="10">
         <v>158</v>
       </c>
-      <c r="T4" s="2">
+      <c r="V4" s="2">
         <v>43</v>
       </c>
-      <c r="U4" s="2">
+      <c r="W4" s="2">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="15">
         <v>45385</v>
       </c>
@@ -2338,62 +2387,68 @@
       <c r="C5" s="2">
         <v>317</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5">
+        <v>281</v>
+      </c>
+      <c r="E5">
+        <v>322</v>
+      </c>
+      <c r="F5" s="2">
         <v>250</v>
       </c>
-      <c r="E5" s="2">
+      <c r="G5" s="2">
         <v>220</v>
       </c>
-      <c r="F5" s="2">
+      <c r="H5" s="2">
         <v>240</v>
-      </c>
-      <c r="G5" s="2">
-        <v>230</v>
-      </c>
-      <c r="H5" s="2">
-        <v>220</v>
       </c>
       <c r="I5" s="2">
         <v>230</v>
       </c>
       <c r="J5" s="2">
+        <v>220</v>
+      </c>
+      <c r="K5" s="2">
+        <v>230</v>
+      </c>
+      <c r="L5" s="2">
         <v>520</v>
       </c>
-      <c r="K5" s="2">
+      <c r="M5" s="2">
         <v>350</v>
-      </c>
-      <c r="L5" s="2">
-        <v>250</v>
-      </c>
-      <c r="M5" s="2">
-        <v>400</v>
       </c>
       <c r="N5" s="2">
         <v>250</v>
       </c>
       <c r="O5" s="2">
+        <v>400</v>
+      </c>
+      <c r="P5" s="2">
+        <v>250</v>
+      </c>
+      <c r="Q5" s="2">
         <v>450</v>
       </c>
-      <c r="P5" s="2">
+      <c r="R5" s="2">
         <v>230</v>
       </c>
-      <c r="Q5" s="10">
+      <c r="S5" s="10">
         <v>251</v>
       </c>
-      <c r="R5" s="2">
+      <c r="T5" s="2">
         <v>330</v>
       </c>
-      <c r="S5" s="2">
+      <c r="U5" s="2">
         <v>230</v>
       </c>
-      <c r="T5" s="2">
+      <c r="V5" s="2">
         <v>43</v>
       </c>
-      <c r="U5" s="2">
+      <c r="W5" s="2">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
         <v>45386</v>
       </c>
@@ -2403,62 +2458,68 @@
       <c r="C6" s="10">
         <v>317</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6">
+        <v>300</v>
+      </c>
+      <c r="E6">
+        <v>294</v>
+      </c>
+      <c r="F6" s="2">
         <v>280</v>
       </c>
-      <c r="E6" s="2">
+      <c r="G6" s="2">
         <v>220</v>
       </c>
-      <c r="F6" s="10">
+      <c r="H6" s="10">
         <v>290</v>
       </c>
-      <c r="G6" s="2">
+      <c r="I6" s="2">
         <v>200</v>
       </c>
-      <c r="H6" s="2">
+      <c r="J6" s="2">
         <v>220</v>
       </c>
-      <c r="I6" s="2">
+      <c r="K6" s="2">
         <v>230</v>
       </c>
-      <c r="J6" s="2">
+      <c r="L6" s="2">
         <v>570</v>
       </c>
-      <c r="K6" s="2">
+      <c r="M6" s="2">
         <v>360</v>
-      </c>
-      <c r="L6" s="2">
-        <v>300</v>
-      </c>
-      <c r="M6" s="2">
-        <v>425</v>
       </c>
       <c r="N6" s="2">
         <v>300</v>
       </c>
       <c r="O6" s="2">
+        <v>425</v>
+      </c>
+      <c r="P6" s="2">
+        <v>300</v>
+      </c>
+      <c r="Q6" s="2">
         <v>450</v>
       </c>
-      <c r="P6" s="2">
+      <c r="R6" s="2">
         <v>280</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="S6" s="2">
         <v>251</v>
       </c>
-      <c r="R6" s="2">
+      <c r="T6" s="2">
         <v>340</v>
       </c>
-      <c r="S6" s="10">
+      <c r="U6" s="10">
         <v>169</v>
       </c>
-      <c r="T6" s="2">
+      <c r="V6" s="2">
         <v>43</v>
       </c>
-      <c r="U6" s="2">
+      <c r="W6" s="2">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
         <f t="shared" ref="A7:A17" si="0">A6+1</f>
         <v>45387</v>
@@ -2469,62 +2530,68 @@
       <c r="C7" s="2">
         <v>307</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7">
+        <v>243</v>
+      </c>
+      <c r="E7">
+        <v>305</v>
+      </c>
+      <c r="F7" s="2">
         <v>250</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>220</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>240</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>230</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>220</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>240</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>520</v>
       </c>
-      <c r="K7" s="10">
+      <c r="M7" s="10">
         <v>300</v>
-      </c>
-      <c r="L7" s="2">
-        <v>250</v>
-      </c>
-      <c r="M7" s="2">
-        <v>455</v>
       </c>
       <c r="N7" s="2">
         <v>250</v>
       </c>
       <c r="O7" s="2">
+        <v>455</v>
+      </c>
+      <c r="P7" s="2">
+        <v>250</v>
+      </c>
+      <c r="Q7" s="2">
         <v>450</v>
       </c>
-      <c r="P7" s="10">
+      <c r="R7" s="10">
         <v>230</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>251</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>330</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>230</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="15">
         <f>A7+3</f>
         <v>45390</v>
@@ -2535,62 +2602,68 @@
       <c r="C8" s="2">
         <v>307</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8">
+        <v>243</v>
+      </c>
+      <c r="E8">
+        <v>254</v>
+      </c>
+      <c r="F8" s="2">
         <v>250</v>
       </c>
-      <c r="E8" s="2">
+      <c r="G8" s="2">
         <v>220</v>
       </c>
-      <c r="F8" s="2">
+      <c r="H8" s="2">
         <v>240</v>
       </c>
-      <c r="G8" s="2">
+      <c r="I8" s="2">
         <v>230</v>
       </c>
-      <c r="H8" s="10">
+      <c r="J8" s="10">
         <v>220</v>
       </c>
-      <c r="I8" s="10">
+      <c r="K8" s="10">
         <v>240</v>
       </c>
-      <c r="J8" s="10">
+      <c r="L8" s="10">
         <v>520</v>
       </c>
-      <c r="K8" s="2">
+      <c r="M8" s="2">
         <v>360</v>
-      </c>
-      <c r="L8" s="2">
-        <v>250</v>
-      </c>
-      <c r="M8" s="2">
-        <v>400</v>
       </c>
       <c r="N8" s="2">
         <v>250</v>
       </c>
       <c r="O8" s="2">
+        <v>400</v>
+      </c>
+      <c r="P8" s="2">
+        <v>250</v>
+      </c>
+      <c r="Q8" s="2">
         <v>425</v>
       </c>
-      <c r="P8" s="10">
+      <c r="R8" s="10">
         <v>230</v>
       </c>
-      <c r="Q8" s="2">
+      <c r="S8" s="2">
         <v>251</v>
       </c>
-      <c r="R8" s="2">
+      <c r="T8" s="2">
         <v>330</v>
       </c>
-      <c r="S8" s="2">
+      <c r="U8" s="2">
         <v>230</v>
       </c>
-      <c r="T8" s="2">
+      <c r="V8" s="2">
         <v>43</v>
       </c>
-      <c r="U8" s="2">
+      <c r="W8" s="2">
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="15">
         <f t="shared" si="0"/>
         <v>45391</v>
@@ -2601,62 +2674,68 @@
       <c r="C9" s="10">
         <v>307</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9">
+        <v>263</v>
+      </c>
+      <c r="E9">
+        <v>296</v>
+      </c>
+      <c r="F9" s="2">
         <v>250</v>
       </c>
-      <c r="E9" s="2">
+      <c r="G9" s="2">
         <v>220</v>
       </c>
-      <c r="F9" s="2">
+      <c r="H9" s="2">
         <v>240</v>
       </c>
-      <c r="G9" s="2">
+      <c r="I9" s="2">
         <v>230</v>
       </c>
-      <c r="H9" s="2">
+      <c r="J9" s="2">
         <v>220</v>
       </c>
-      <c r="I9" s="2">
+      <c r="K9" s="2">
         <v>240</v>
       </c>
-      <c r="J9" s="2">
+      <c r="L9" s="2">
         <v>520</v>
       </c>
-      <c r="K9" s="2">
+      <c r="M9" s="2">
         <v>360</v>
       </c>
-      <c r="L9" s="2">
+      <c r="N9" s="2">
         <v>275</v>
       </c>
-      <c r="M9" s="10">
+      <c r="O9" s="10">
         <v>200</v>
       </c>
-      <c r="N9" s="2">
+      <c r="P9" s="2">
         <v>250</v>
       </c>
-      <c r="O9" s="2">
+      <c r="Q9" s="2">
         <v>200</v>
       </c>
-      <c r="P9" s="2">
+      <c r="R9" s="2">
         <v>230</v>
       </c>
-      <c r="Q9" s="2">
+      <c r="S9" s="2">
         <v>251</v>
       </c>
-      <c r="R9" s="2">
+      <c r="T9" s="2">
         <v>330</v>
       </c>
-      <c r="S9" s="2">
+      <c r="U9" s="2">
         <v>230</v>
       </c>
-      <c r="T9" s="2">
+      <c r="V9" s="2">
         <v>43</v>
       </c>
-      <c r="U9" s="2">
+      <c r="W9" s="2">
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
         <f t="shared" si="0"/>
         <v>45392</v>
@@ -2667,62 +2746,68 @@
       <c r="C10" s="10">
         <v>317</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10">
+        <v>254</v>
+      </c>
+      <c r="E10">
+        <v>281</v>
+      </c>
+      <c r="F10" s="2">
         <v>250</v>
       </c>
-      <c r="E10" s="2">
+      <c r="G10" s="2">
         <v>220</v>
       </c>
-      <c r="F10" s="2">
+      <c r="H10" s="2">
         <v>225</v>
-      </c>
-      <c r="G10" s="2">
-        <v>230</v>
-      </c>
-      <c r="H10" s="2">
-        <v>220</v>
       </c>
       <c r="I10" s="2">
         <v>230</v>
       </c>
       <c r="J10" s="2">
+        <v>220</v>
+      </c>
+      <c r="K10" s="2">
+        <v>230</v>
+      </c>
+      <c r="L10" s="2">
         <v>520</v>
       </c>
-      <c r="K10" s="10">
+      <c r="M10" s="10">
         <v>240</v>
-      </c>
-      <c r="L10" s="2">
-        <v>250</v>
-      </c>
-      <c r="M10" s="2">
-        <v>400</v>
       </c>
       <c r="N10" s="2">
         <v>250</v>
       </c>
       <c r="O10" s="2">
+        <v>400</v>
+      </c>
+      <c r="P10" s="2">
+        <v>250</v>
+      </c>
+      <c r="Q10" s="2">
         <v>425</v>
       </c>
-      <c r="P10" s="2">
+      <c r="R10" s="2">
         <v>230</v>
       </c>
-      <c r="Q10" s="2">
+      <c r="S10" s="2">
         <v>251</v>
       </c>
-      <c r="R10" s="2">
+      <c r="T10" s="2">
         <v>330</v>
       </c>
-      <c r="S10" s="2">
+      <c r="U10" s="2">
         <v>230</v>
       </c>
-      <c r="T10" s="2">
+      <c r="V10" s="2">
         <v>43</v>
       </c>
-      <c r="U10" s="2">
+      <c r="W10" s="2">
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
         <f t="shared" si="0"/>
         <v>45393</v>
@@ -2733,62 +2818,68 @@
       <c r="C11" s="2">
         <v>307</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11">
+        <v>290</v>
+      </c>
+      <c r="E11">
+        <v>285</v>
+      </c>
+      <c r="F11" s="2">
         <v>250</v>
       </c>
-      <c r="E11" s="2">
+      <c r="G11" s="2">
         <v>220</v>
       </c>
-      <c r="F11" s="2">
+      <c r="H11" s="2">
         <v>240</v>
-      </c>
-      <c r="G11" s="2">
-        <v>230</v>
-      </c>
-      <c r="H11" s="2">
-        <v>220</v>
       </c>
       <c r="I11" s="2">
         <v>230</v>
       </c>
       <c r="J11" s="2">
+        <v>220</v>
+      </c>
+      <c r="K11" s="2">
+        <v>230</v>
+      </c>
+      <c r="L11" s="2">
         <v>520</v>
       </c>
-      <c r="K11" s="2">
+      <c r="M11" s="2">
         <v>360</v>
       </c>
-      <c r="L11" s="2">
+      <c r="N11" s="2">
         <v>275</v>
       </c>
-      <c r="M11" s="10">
+      <c r="O11" s="10">
         <v>45</v>
       </c>
-      <c r="N11" s="2">
+      <c r="P11" s="2">
         <v>250</v>
       </c>
-      <c r="O11" s="2">
+      <c r="Q11" s="2">
         <v>405</v>
       </c>
-      <c r="P11" s="2">
+      <c r="R11" s="2">
         <v>230</v>
       </c>
-      <c r="Q11" s="2">
+      <c r="S11" s="2">
         <v>251</v>
       </c>
-      <c r="R11" s="2">
+      <c r="T11" s="2">
         <v>330</v>
       </c>
-      <c r="S11" s="2">
+      <c r="U11" s="2">
         <v>230</v>
       </c>
-      <c r="T11" s="2">
+      <c r="V11" s="2">
         <v>43</v>
       </c>
-      <c r="U11" s="2">
+      <c r="W11" s="2">
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
         <f t="shared" si="0"/>
         <v>45394</v>
@@ -2799,62 +2890,68 @@
       <c r="C12" s="2">
         <v>307</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12">
+        <v>249</v>
+      </c>
+      <c r="E12">
+        <v>294</v>
+      </c>
+      <c r="F12" s="2">
         <v>250</v>
       </c>
-      <c r="E12" s="2">
+      <c r="G12" s="2">
         <v>220</v>
       </c>
-      <c r="F12" s="2">
+      <c r="H12" s="2">
         <v>240</v>
       </c>
-      <c r="G12" s="10">
+      <c r="I12" s="10">
         <v>230</v>
       </c>
-      <c r="H12" s="10">
+      <c r="J12" s="10">
         <v>220</v>
       </c>
-      <c r="I12" s="2">
+      <c r="K12" s="2">
         <v>230</v>
       </c>
-      <c r="J12" s="10">
+      <c r="L12" s="10">
         <v>520</v>
       </c>
-      <c r="K12" s="2">
+      <c r="M12" s="2">
         <v>360</v>
-      </c>
-      <c r="L12" s="2">
-        <v>280</v>
-      </c>
-      <c r="M12" s="2">
-        <v>400</v>
       </c>
       <c r="N12" s="2">
         <v>280</v>
       </c>
       <c r="O12" s="2">
+        <v>400</v>
+      </c>
+      <c r="P12" s="2">
+        <v>280</v>
+      </c>
+      <c r="Q12" s="2">
         <v>425</v>
       </c>
-      <c r="P12" s="10">
+      <c r="R12" s="10">
         <v>230</v>
       </c>
-      <c r="Q12" s="2">
+      <c r="S12" s="2">
         <v>251</v>
       </c>
-      <c r="R12" s="2">
+      <c r="T12" s="2">
         <v>330</v>
       </c>
-      <c r="S12" s="2">
+      <c r="U12" s="2">
         <v>230</v>
       </c>
-      <c r="T12" s="2">
+      <c r="V12" s="2">
         <v>43</v>
       </c>
-      <c r="U12" s="2">
+      <c r="W12" s="2">
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="15">
         <f>A12+3</f>
         <v>45397</v>
@@ -2865,62 +2962,68 @@
       <c r="C13" s="2">
         <v>307</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13">
         <v>250</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13">
+        <v>282</v>
+      </c>
+      <c r="F13" s="2">
+        <v>250</v>
+      </c>
+      <c r="G13" s="2">
         <v>220</v>
       </c>
-      <c r="F13" s="2">
+      <c r="H13" s="2">
         <v>240</v>
-      </c>
-      <c r="G13" s="2">
-        <v>230</v>
-      </c>
-      <c r="H13" s="2">
-        <v>220</v>
       </c>
       <c r="I13" s="2">
         <v>230</v>
       </c>
       <c r="J13" s="2">
+        <v>220</v>
+      </c>
+      <c r="K13" s="2">
+        <v>230</v>
+      </c>
+      <c r="L13" s="2">
         <v>520</v>
       </c>
-      <c r="K13" s="2">
+      <c r="M13" s="2">
         <v>360</v>
       </c>
-      <c r="L13" s="2">
-        <v>250</v>
-      </c>
-      <c r="M13" s="2">
-        <v>400</v>
-      </c>
-      <c r="N13" s="10">
+      <c r="N13" s="2">
         <v>250</v>
       </c>
       <c r="O13" s="2">
         <v>400</v>
       </c>
-      <c r="P13" s="2">
+      <c r="P13" s="10">
+        <v>250</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>400</v>
+      </c>
+      <c r="R13" s="2">
         <v>230</v>
       </c>
-      <c r="Q13" s="2">
+      <c r="S13" s="2">
         <v>251</v>
       </c>
-      <c r="R13" s="2">
+      <c r="T13" s="2">
         <v>330</v>
       </c>
-      <c r="S13" s="2">
+      <c r="U13" s="2">
         <v>230</v>
       </c>
-      <c r="T13" s="2">
+      <c r="V13" s="2">
         <v>43</v>
       </c>
-      <c r="U13" s="2">
+      <c r="W13" s="2">
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="15">
         <f t="shared" si="0"/>
         <v>45398</v>
@@ -2931,62 +3034,68 @@
       <c r="C14" s="2">
         <v>307</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14">
+        <v>266</v>
+      </c>
+      <c r="E14">
+        <v>296</v>
+      </c>
+      <c r="F14" s="2">
         <v>250</v>
       </c>
-      <c r="E14" s="2">
+      <c r="G14" s="2">
         <v>220</v>
       </c>
-      <c r="F14" s="2">
+      <c r="H14" s="2">
         <v>240</v>
-      </c>
-      <c r="G14" s="2">
-        <v>230</v>
-      </c>
-      <c r="H14" s="2">
-        <v>220</v>
       </c>
       <c r="I14" s="2">
         <v>230</v>
       </c>
       <c r="J14" s="2">
+        <v>220</v>
+      </c>
+      <c r="K14" s="2">
+        <v>230</v>
+      </c>
+      <c r="L14" s="2">
         <v>520</v>
       </c>
-      <c r="K14" s="2">
+      <c r="M14" s="2">
         <v>360</v>
       </c>
-      <c r="L14" s="2">
+      <c r="N14" s="2">
         <v>225</v>
-      </c>
-      <c r="M14" s="2">
-        <v>425</v>
-      </c>
-      <c r="N14" s="2">
-        <v>250</v>
       </c>
       <c r="O14" s="2">
         <v>425</v>
       </c>
       <c r="P14" s="2">
+        <v>250</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>425</v>
+      </c>
+      <c r="R14" s="2">
         <v>230</v>
       </c>
-      <c r="Q14" s="2">
+      <c r="S14" s="2">
         <v>251</v>
       </c>
-      <c r="R14" s="2">
+      <c r="T14" s="2">
         <v>330</v>
       </c>
-      <c r="S14" s="2">
+      <c r="U14" s="2">
         <v>230</v>
       </c>
-      <c r="T14" s="2">
-        <v>0</v>
-      </c>
-      <c r="U14" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V14" s="2">
+        <v>0</v>
+      </c>
+      <c r="W14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="15">
         <f t="shared" si="0"/>
         <v>45399</v>
@@ -2997,62 +3106,68 @@
       <c r="C15" s="10">
         <v>307</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15">
+        <v>273</v>
+      </c>
+      <c r="E15">
+        <v>267</v>
+      </c>
+      <c r="F15" s="2">
         <v>250</v>
       </c>
-      <c r="E15" s="2">
+      <c r="G15" s="2">
         <v>220</v>
       </c>
-      <c r="F15" s="2">
+      <c r="H15" s="2">
         <v>240</v>
-      </c>
-      <c r="G15" s="2">
-        <v>230</v>
-      </c>
-      <c r="H15" s="2">
-        <v>220</v>
       </c>
       <c r="I15" s="2">
         <v>230</v>
       </c>
       <c r="J15" s="2">
+        <v>220</v>
+      </c>
+      <c r="K15" s="2">
+        <v>230</v>
+      </c>
+      <c r="L15" s="2">
         <v>520</v>
       </c>
-      <c r="K15" s="2">
+      <c r="M15" s="2">
         <v>360</v>
-      </c>
-      <c r="L15" s="2">
-        <v>250</v>
-      </c>
-      <c r="M15" s="2">
-        <v>355</v>
       </c>
       <c r="N15" s="2">
         <v>250</v>
       </c>
       <c r="O15" s="2">
+        <v>355</v>
+      </c>
+      <c r="P15" s="2">
+        <v>250</v>
+      </c>
+      <c r="Q15" s="2">
         <v>375</v>
       </c>
-      <c r="P15" s="2">
+      <c r="R15" s="2">
         <v>230</v>
       </c>
-      <c r="Q15" s="2">
+      <c r="S15" s="2">
         <v>251</v>
       </c>
-      <c r="R15" s="2">
+      <c r="T15" s="2">
         <v>330</v>
       </c>
-      <c r="S15" s="2">
+      <c r="U15" s="2">
         <v>230</v>
       </c>
-      <c r="T15" s="2">
-        <v>0</v>
-      </c>
-      <c r="U15" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V15" s="2">
+        <v>0</v>
+      </c>
+      <c r="W15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="15">
         <f t="shared" si="0"/>
         <v>45400</v>
@@ -3063,62 +3178,68 @@
       <c r="C16" s="2">
         <v>307</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16">
+        <v>285</v>
+      </c>
+      <c r="E16">
+        <v>304</v>
+      </c>
+      <c r="F16" s="2">
         <v>250</v>
       </c>
-      <c r="E16" s="2">
+      <c r="G16" s="2">
         <v>220</v>
       </c>
-      <c r="F16" s="2">
+      <c r="H16" s="2">
         <v>240</v>
       </c>
-      <c r="G16" s="2">
+      <c r="I16" s="2">
         <v>230</v>
       </c>
-      <c r="H16" s="2">
+      <c r="J16" s="2">
         <v>220</v>
       </c>
-      <c r="I16" s="10">
+      <c r="K16" s="10">
         <v>230</v>
       </c>
-      <c r="J16" s="2">
+      <c r="L16" s="2">
         <v>520</v>
       </c>
-      <c r="K16" s="2">
+      <c r="M16" s="2">
         <v>360</v>
       </c>
-      <c r="L16" s="2">
+      <c r="N16" s="2">
         <v>275</v>
       </c>
-      <c r="M16" s="2">
+      <c r="O16" s="2">
         <v>400</v>
       </c>
-      <c r="N16" s="2">
+      <c r="P16" s="2">
         <v>250</v>
       </c>
-      <c r="O16" s="2">
+      <c r="Q16" s="2">
         <v>425</v>
       </c>
-      <c r="P16" s="2">
+      <c r="R16" s="2">
         <v>230</v>
       </c>
-      <c r="Q16" s="2">
+      <c r="S16" s="2">
         <v>251</v>
       </c>
-      <c r="R16" s="2">
+      <c r="T16" s="2">
         <v>330</v>
       </c>
-      <c r="S16" s="2">
+      <c r="U16" s="2">
         <v>230</v>
       </c>
-      <c r="T16" s="2">
+      <c r="V16" s="2">
         <v>43</v>
       </c>
-      <c r="U16" s="2">
+      <c r="W16" s="2">
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="15">
         <f t="shared" si="0"/>
         <v>45401</v>
@@ -3129,62 +3250,68 @@
       <c r="C17" s="10">
         <v>237</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17">
+        <v>268</v>
+      </c>
+      <c r="E17">
+        <v>168</v>
+      </c>
+      <c r="F17" s="2">
         <v>250</v>
       </c>
-      <c r="E17" s="2">
+      <c r="G17" s="2">
         <v>220</v>
       </c>
-      <c r="F17" s="2">
+      <c r="H17" s="2">
         <v>240</v>
       </c>
-      <c r="G17" s="10">
+      <c r="I17" s="10">
         <v>230</v>
       </c>
-      <c r="H17" s="2">
+      <c r="J17" s="2">
         <v>220</v>
       </c>
-      <c r="I17" s="2">
+      <c r="K17" s="2">
         <v>230</v>
       </c>
-      <c r="J17" s="2">
+      <c r="L17" s="2">
         <v>520</v>
       </c>
-      <c r="K17" s="2">
+      <c r="M17" s="2">
         <v>360</v>
-      </c>
-      <c r="L17" s="2">
-        <v>250</v>
-      </c>
-      <c r="M17" s="2">
-        <v>405</v>
       </c>
       <c r="N17" s="2">
         <v>250</v>
       </c>
-      <c r="O17" s="10">
+      <c r="O17" s="2">
+        <v>405</v>
+      </c>
+      <c r="P17" s="2">
+        <v>250</v>
+      </c>
+      <c r="Q17" s="10">
         <v>205</v>
       </c>
-      <c r="P17" s="2">
+      <c r="R17" s="2">
         <v>230</v>
       </c>
-      <c r="Q17" s="10">
+      <c r="S17" s="10">
         <v>251</v>
       </c>
-      <c r="R17" s="2">
+      <c r="T17" s="2">
         <v>330</v>
       </c>
-      <c r="S17" s="2">
+      <c r="U17" s="2">
         <v>230</v>
       </c>
-      <c r="T17" s="2">
+      <c r="V17" s="2">
         <v>43</v>
       </c>
-      <c r="U17" s="2">
+      <c r="W17" s="2">
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="15">
         <f>A17+3</f>
         <v>45404</v>
@@ -3195,62 +3322,68 @@
       <c r="C18" s="10">
         <v>307</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18">
+        <v>274</v>
+      </c>
+      <c r="E18">
+        <v>270</v>
+      </c>
+      <c r="F18" s="2">
         <v>250</v>
       </c>
-      <c r="E18" s="2">
+      <c r="G18" s="2">
         <v>220</v>
       </c>
-      <c r="F18" s="2">
+      <c r="H18" s="2">
         <v>240</v>
       </c>
-      <c r="G18" s="10">
+      <c r="I18" s="10">
         <v>230</v>
       </c>
-      <c r="H18" s="2">
+      <c r="J18" s="2">
         <v>220</v>
       </c>
-      <c r="I18" s="2">
+      <c r="K18" s="2">
         <v>230</v>
       </c>
-      <c r="J18" s="2">
+      <c r="L18" s="2">
         <v>520</v>
       </c>
-      <c r="K18" s="2">
+      <c r="M18" s="2">
         <v>360</v>
-      </c>
-      <c r="L18" s="2">
-        <v>250</v>
-      </c>
-      <c r="M18" s="2">
-        <v>400</v>
       </c>
       <c r="N18" s="2">
         <v>250</v>
       </c>
-      <c r="O18" s="10">
+      <c r="O18" s="2">
+        <v>400</v>
+      </c>
+      <c r="P18" s="2">
+        <v>250</v>
+      </c>
+      <c r="Q18" s="10">
         <v>375</v>
       </c>
-      <c r="P18" s="2">
+      <c r="R18" s="2">
         <v>230</v>
       </c>
-      <c r="Q18" s="10">
+      <c r="S18" s="10">
         <v>251</v>
       </c>
-      <c r="R18" s="2">
+      <c r="T18" s="2">
         <v>330</v>
       </c>
-      <c r="S18" s="2">
+      <c r="U18" s="2">
         <v>230</v>
       </c>
-      <c r="T18" s="2">
+      <c r="V18" s="2">
         <v>43</v>
       </c>
-      <c r="U18" s="2">
+      <c r="W18" s="2">
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="15">
         <f>A18+1</f>
         <v>45405</v>
@@ -3261,62 +3394,68 @@
       <c r="C19" s="2">
         <v>307</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19">
+        <v>284</v>
+      </c>
+      <c r="E19">
+        <v>309</v>
+      </c>
+      <c r="F19" s="2">
         <v>250</v>
       </c>
-      <c r="E19" s="2">
+      <c r="G19" s="2">
         <v>220</v>
       </c>
-      <c r="F19" s="2">
+      <c r="H19" s="2">
         <v>240</v>
-      </c>
-      <c r="G19" s="2">
-        <v>230</v>
-      </c>
-      <c r="H19" s="2">
-        <v>220</v>
       </c>
       <c r="I19" s="2">
         <v>230</v>
       </c>
       <c r="J19" s="2">
+        <v>220</v>
+      </c>
+      <c r="K19" s="2">
+        <v>230</v>
+      </c>
+      <c r="L19" s="2">
         <v>520</v>
       </c>
-      <c r="K19" s="2">
+      <c r="M19" s="2">
         <v>360</v>
-      </c>
-      <c r="L19" s="2">
-        <v>250</v>
-      </c>
-      <c r="M19" s="2">
-        <v>405</v>
       </c>
       <c r="N19" s="2">
         <v>250</v>
       </c>
       <c r="O19" s="2">
+        <v>405</v>
+      </c>
+      <c r="P19" s="2">
+        <v>250</v>
+      </c>
+      <c r="Q19" s="2">
         <v>425</v>
       </c>
-      <c r="P19" s="2">
+      <c r="R19" s="2">
         <v>230</v>
       </c>
-      <c r="Q19" s="2">
+      <c r="S19" s="2">
         <v>351</v>
       </c>
-      <c r="R19" s="2">
+      <c r="T19" s="2">
         <v>330</v>
       </c>
-      <c r="S19" s="2">
+      <c r="U19" s="2">
         <v>250</v>
       </c>
-      <c r="T19" s="2">
+      <c r="V19" s="2">
         <v>43</v>
       </c>
-      <c r="U19" s="2">
+      <c r="W19" s="2">
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
         <f t="shared" ref="A20:A22" si="1">A19+1</f>
         <v>45406</v>
@@ -3327,62 +3466,68 @@
       <c r="C20" s="2">
         <v>307</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20">
+        <v>275</v>
+      </c>
+      <c r="E20">
+        <v>298</v>
+      </c>
+      <c r="F20" s="2">
         <v>250</v>
       </c>
-      <c r="E20" s="2">
+      <c r="G20" s="2">
         <v>220</v>
       </c>
-      <c r="F20" s="2">
+      <c r="H20" s="2">
         <v>240</v>
-      </c>
-      <c r="G20" s="2">
-        <v>230</v>
-      </c>
-      <c r="H20" s="2">
-        <v>220</v>
       </c>
       <c r="I20" s="2">
         <v>230</v>
       </c>
       <c r="J20" s="2">
+        <v>220</v>
+      </c>
+      <c r="K20" s="2">
+        <v>230</v>
+      </c>
+      <c r="L20" s="2">
         <v>520</v>
       </c>
-      <c r="K20" s="2">
+      <c r="M20" s="2">
         <v>360</v>
-      </c>
-      <c r="L20" s="2">
-        <v>250</v>
-      </c>
-      <c r="M20" s="2">
-        <v>400</v>
       </c>
       <c r="N20" s="2">
         <v>250</v>
       </c>
       <c r="O20" s="2">
+        <v>400</v>
+      </c>
+      <c r="P20" s="2">
+        <v>250</v>
+      </c>
+      <c r="Q20" s="2">
         <v>420</v>
       </c>
-      <c r="P20" s="2">
+      <c r="R20" s="2">
         <v>230</v>
       </c>
-      <c r="Q20" s="2">
+      <c r="S20" s="2">
         <v>251</v>
       </c>
-      <c r="R20" s="2">
+      <c r="T20" s="2">
         <v>330</v>
       </c>
-      <c r="S20" s="2">
+      <c r="U20" s="2">
         <v>250</v>
       </c>
-      <c r="T20" s="2">
+      <c r="V20" s="2">
         <v>43</v>
       </c>
-      <c r="U20" s="2">
+      <c r="W20" s="2">
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="15">
         <f>A20+1</f>
         <v>45407</v>
@@ -3393,62 +3538,68 @@
       <c r="C21" s="2">
         <v>307</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21">
+        <v>287</v>
+      </c>
+      <c r="E21">
+        <v>330</v>
+      </c>
+      <c r="F21" s="2">
         <v>250</v>
       </c>
-      <c r="E21" s="2">
+      <c r="G21" s="2">
         <v>220</v>
       </c>
-      <c r="F21" s="2">
+      <c r="H21" s="2">
         <v>240</v>
       </c>
-      <c r="G21" s="2">
+      <c r="I21" s="2">
         <v>230</v>
       </c>
-      <c r="H21" s="2">
+      <c r="J21" s="2">
         <v>220</v>
       </c>
-      <c r="I21" s="2">
+      <c r="K21" s="2">
         <v>170</v>
       </c>
-      <c r="J21" s="2">
+      <c r="L21" s="2">
         <v>520</v>
       </c>
-      <c r="K21" s="2">
+      <c r="M21" s="2">
         <v>270</v>
-      </c>
-      <c r="L21" s="2">
-        <v>250</v>
-      </c>
-      <c r="M21" s="2">
-        <v>405</v>
       </c>
       <c r="N21" s="2">
         <v>250</v>
       </c>
       <c r="O21" s="2">
+        <v>405</v>
+      </c>
+      <c r="P21" s="2">
+        <v>250</v>
+      </c>
+      <c r="Q21" s="2">
         <v>375</v>
       </c>
-      <c r="P21" s="2">
+      <c r="R21" s="2">
         <v>230</v>
       </c>
-      <c r="Q21" s="2">
+      <c r="S21" s="2">
         <v>251</v>
       </c>
-      <c r="R21" s="2">
+      <c r="T21" s="2">
         <v>330</v>
       </c>
-      <c r="S21" s="2">
+      <c r="U21" s="2">
         <v>180</v>
       </c>
-      <c r="T21" s="2">
+      <c r="V21" s="2">
         <v>43</v>
       </c>
-      <c r="U21" s="2">
+      <c r="W21" s="2">
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="15">
         <f t="shared" si="1"/>
         <v>45408</v>
@@ -3459,62 +3610,68 @@
       <c r="C22" s="2">
         <v>307</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22">
+        <v>259</v>
+      </c>
+      <c r="E22">
+        <v>309</v>
+      </c>
+      <c r="F22" s="2">
         <v>250</v>
       </c>
-      <c r="E22" s="2">
+      <c r="G22" s="2">
         <v>220</v>
       </c>
-      <c r="F22" s="2">
+      <c r="H22" s="2">
         <v>240</v>
       </c>
-      <c r="G22" s="2">
+      <c r="I22" s="2">
         <v>165</v>
       </c>
-      <c r="H22" s="2">
+      <c r="J22" s="2">
         <v>220</v>
       </c>
-      <c r="I22" s="2">
+      <c r="K22" s="2">
         <v>230</v>
       </c>
-      <c r="J22" s="2">
+      <c r="L22" s="2">
         <v>520</v>
       </c>
-      <c r="K22" s="2">
+      <c r="M22" s="2">
         <v>360</v>
-      </c>
-      <c r="L22" s="2">
-        <v>250</v>
-      </c>
-      <c r="M22" s="2">
-        <v>405</v>
       </c>
       <c r="N22" s="2">
         <v>250</v>
       </c>
-      <c r="O22" s="10">
+      <c r="O22" s="2">
+        <v>405</v>
+      </c>
+      <c r="P22" s="2">
+        <v>250</v>
+      </c>
+      <c r="Q22" s="10">
         <v>425</v>
       </c>
-      <c r="P22" s="2">
+      <c r="R22" s="2">
         <v>230</v>
       </c>
-      <c r="Q22" s="2">
+      <c r="S22" s="2">
         <v>211</v>
       </c>
-      <c r="R22" s="2">
+      <c r="T22" s="2">
         <v>330</v>
       </c>
-      <c r="S22" s="2">
+      <c r="U22" s="2">
         <v>240</v>
       </c>
-      <c r="T22" s="2">
-        <v>0</v>
-      </c>
-      <c r="U22" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V22" s="2">
+        <v>0</v>
+      </c>
+      <c r="W22" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="15">
         <f>A22+3</f>
         <v>45411</v>
@@ -3525,62 +3682,68 @@
       <c r="C23" s="2">
         <v>307</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23">
+        <v>265</v>
+      </c>
+      <c r="E23">
+        <v>316</v>
+      </c>
+      <c r="F23" s="2">
         <v>250</v>
       </c>
-      <c r="E23" s="2">
+      <c r="G23" s="2">
         <v>220</v>
       </c>
-      <c r="F23" s="2">
+      <c r="H23" s="2">
         <v>240</v>
-      </c>
-      <c r="G23" s="2">
-        <v>230</v>
-      </c>
-      <c r="H23" s="10">
-        <v>220</v>
       </c>
       <c r="I23" s="2">
         <v>230</v>
       </c>
-      <c r="J23" s="2">
+      <c r="J23" s="10">
+        <v>220</v>
+      </c>
+      <c r="K23" s="2">
+        <v>230</v>
+      </c>
+      <c r="L23" s="2">
         <v>530</v>
       </c>
-      <c r="K23" s="2">
+      <c r="M23" s="2">
         <v>360</v>
       </c>
-      <c r="L23" s="2">
+      <c r="N23" s="2">
         <v>250</v>
       </c>
-      <c r="M23" s="2">
+      <c r="O23" s="2">
         <v>400</v>
       </c>
-      <c r="N23" s="10">
+      <c r="P23" s="10">
         <v>250</v>
       </c>
-      <c r="O23" s="10">
+      <c r="Q23" s="10">
         <v>420</v>
       </c>
-      <c r="P23" s="10">
+      <c r="R23" s="10">
         <v>230</v>
       </c>
-      <c r="Q23" s="2">
+      <c r="S23" s="2">
         <v>251</v>
       </c>
-      <c r="R23" s="2">
+      <c r="T23" s="2">
         <v>330</v>
       </c>
-      <c r="S23" s="2">
+      <c r="U23" s="2">
         <v>250</v>
       </c>
-      <c r="T23" s="2">
+      <c r="V23" s="2">
         <v>43</v>
       </c>
-      <c r="U23" s="2">
+      <c r="W23" s="2">
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="15">
         <f>A23+1</f>
         <v>45412</v>
@@ -3591,147 +3754,155 @@
       <c r="C24" s="2">
         <v>307</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24">
+        <v>285</v>
+      </c>
+      <c r="E24">
+        <v>293</v>
+      </c>
+      <c r="F24" s="2">
         <v>250</v>
       </c>
-      <c r="E24" s="2">
+      <c r="G24" s="2">
         <v>220</v>
       </c>
-      <c r="F24" s="2">
+      <c r="H24" s="2">
         <v>240</v>
-      </c>
-      <c r="G24" s="2">
-        <v>230</v>
-      </c>
-      <c r="H24" s="2">
-        <v>220</v>
       </c>
       <c r="I24" s="2">
         <v>230</v>
       </c>
       <c r="J24" s="2">
+        <v>220</v>
+      </c>
+      <c r="K24" s="2">
+        <v>230</v>
+      </c>
+      <c r="L24" s="2">
         <v>520</v>
       </c>
-      <c r="K24" s="2">
+      <c r="M24" s="2">
         <v>360</v>
-      </c>
-      <c r="L24" s="2">
-        <v>250</v>
-      </c>
-      <c r="M24" s="2">
-        <v>405</v>
       </c>
       <c r="N24" s="2">
         <v>250</v>
       </c>
       <c r="O24" s="2">
+        <v>405</v>
+      </c>
+      <c r="P24" s="2">
+        <v>250</v>
+      </c>
+      <c r="Q24" s="2">
         <v>425</v>
       </c>
-      <c r="P24" s="2">
+      <c r="R24" s="2">
         <v>230</v>
       </c>
-      <c r="Q24" s="2">
+      <c r="S24" s="2">
         <v>251</v>
       </c>
-      <c r="R24" s="2">
+      <c r="T24" s="2">
         <v>330</v>
       </c>
-      <c r="S24" s="10">
+      <c r="U24" s="10">
         <v>250</v>
       </c>
-      <c r="T24" s="2">
+      <c r="V24" s="2">
         <v>43</v>
       </c>
-      <c r="U24" s="2">
+      <c r="W24" s="2">
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
         <v>13</v>
       </c>
       <c r="B25" s="6">
-        <f t="shared" ref="B25:K25" si="2">ROUND(AVERAGE(B3:B24),0)</f>
+        <f t="shared" ref="B25:M25" si="2">ROUND(AVERAGE(B3:B24),0)</f>
         <v>308</v>
       </c>
       <c r="C25" s="6">
         <f t="shared" si="2"/>
         <v>304</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6">
         <f t="shared" si="2"/>
         <v>251</v>
       </c>
-      <c r="E25" s="6">
+      <c r="G25" s="6">
         <f t="shared" si="2"/>
         <v>220</v>
       </c>
-      <c r="F25" s="6">
+      <c r="H25" s="6">
         <f t="shared" si="2"/>
         <v>242</v>
       </c>
-      <c r="G25" s="6">
+      <c r="I25" s="6">
         <f t="shared" si="2"/>
         <v>226</v>
       </c>
-      <c r="H25" s="6">
+      <c r="J25" s="6">
         <f t="shared" si="2"/>
         <v>220</v>
       </c>
-      <c r="I25" s="6">
+      <c r="K25" s="6">
         <f t="shared" si="2"/>
         <v>229</v>
       </c>
-      <c r="J25" s="6">
+      <c r="L25" s="6">
         <f t="shared" si="2"/>
         <v>523</v>
       </c>
-      <c r="K25" s="6">
+      <c r="M25" s="6">
         <f t="shared" si="2"/>
         <v>349</v>
       </c>
-      <c r="L25" s="6">
-        <f>ROUND(AVERAGE(L3:L24),0)</f>
+      <c r="N25" s="6">
+        <f>ROUND(AVERAGE(N3:N24),0)</f>
         <v>256</v>
       </c>
-      <c r="M25" s="6">
-        <f t="shared" ref="M25:U25" si="3">ROUND(AVERAGE(M3:M24),0)</f>
+      <c r="O25" s="6">
+        <f t="shared" ref="O25:W25" si="3">ROUND(AVERAGE(O3:O24),0)</f>
         <v>379</v>
       </c>
-      <c r="N25" s="6">
+      <c r="P25" s="6">
         <f t="shared" si="3"/>
         <v>254</v>
       </c>
-      <c r="O25" s="6">
+      <c r="Q25" s="6">
         <f t="shared" si="3"/>
         <v>401</v>
       </c>
-      <c r="P25" s="6">
+      <c r="R25" s="6">
         <f t="shared" si="3"/>
         <v>232</v>
       </c>
-      <c r="Q25" s="6">
+      <c r="S25" s="6">
         <f t="shared" si="3"/>
         <v>251</v>
       </c>
-      <c r="R25" s="6">
+      <c r="T25" s="6">
         <f t="shared" si="3"/>
         <v>330</v>
       </c>
-      <c r="S25" s="6">
+      <c r="U25" s="6">
         <f t="shared" si="3"/>
         <v>226</v>
       </c>
-      <c r="T25" s="6">
+      <c r="V25" s="6">
         <f t="shared" si="3"/>
         <v>37</v>
       </c>
-      <c r="U25" s="6">
+      <c r="W25" s="6">
         <f t="shared" si="3"/>
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
         <v>36</v>
       </c>
@@ -3741,23 +3912,19 @@
       <c r="C26" s="13">
         <v>288</v>
       </c>
-      <c r="D26" s="13">
-        <v>0</v>
-      </c>
-      <c r="E26" s="13">
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13">
+        <v>0</v>
+      </c>
+      <c r="G26" s="13">
         <v>192</v>
       </c>
-      <c r="F26" s="13">
-        <v>0</v>
-      </c>
-      <c r="G26" s="13">
+      <c r="H26" s="13">
+        <v>0</v>
+      </c>
+      <c r="I26" s="13">
         <v>96</v>
-      </c>
-      <c r="H26" s="13">
-        <v>0</v>
-      </c>
-      <c r="I26" s="13">
-        <v>192</v>
       </c>
       <c r="J26" s="13">
         <v>0</v>
@@ -3769,7 +3936,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="13">
-        <v>288</v>
+        <v>192</v>
       </c>
       <c r="N26" s="13">
         <v>0</v>
@@ -3781,22 +3948,28 @@
         <v>0</v>
       </c>
       <c r="Q26" s="13">
+        <v>288</v>
+      </c>
+      <c r="R26" s="13">
+        <v>0</v>
+      </c>
+      <c r="S26" s="13">
         <v>192</v>
       </c>
-      <c r="R26" s="13">
-        <v>0</v>
-      </c>
-      <c r="S26" s="13">
+      <c r="T26" s="13">
+        <v>0</v>
+      </c>
+      <c r="U26" s="13">
         <v>288</v>
       </c>
-      <c r="T26" s="13">
-        <v>0</v>
-      </c>
-      <c r="U26" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V26" s="13">
+        <v>0</v>
+      </c>
+      <c r="W26" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
         <v>37</v>
       </c>
@@ -3806,12 +3979,8 @@
       <c r="C27" s="13">
         <v>240</v>
       </c>
-      <c r="D27" s="13">
-        <v>0</v>
-      </c>
-      <c r="E27" s="13">
-        <v>240</v>
-      </c>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
       <c r="F27" s="13">
         <v>0</v>
       </c>
@@ -3828,25 +3997,25 @@
         <v>0</v>
       </c>
       <c r="K27" s="13">
+        <v>240</v>
+      </c>
+      <c r="L27" s="13">
+        <v>0</v>
+      </c>
+      <c r="M27" s="13">
         <v>249</v>
       </c>
-      <c r="L27" s="13">
-        <v>0</v>
-      </c>
-      <c r="M27" s="13">
+      <c r="N27" s="13">
+        <v>0</v>
+      </c>
+      <c r="O27" s="13">
         <v>720</v>
       </c>
-      <c r="N27" s="13">
-        <v>0</v>
-      </c>
-      <c r="O27" s="13">
+      <c r="P27" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="13">
         <v>480</v>
-      </c>
-      <c r="P27" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="13">
-        <v>240</v>
       </c>
       <c r="R27" s="13">
         <v>0</v>
@@ -3858,10 +4027,16 @@
         <v>0</v>
       </c>
       <c r="U27" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+      <c r="V27" s="13">
+        <v>0</v>
+      </c>
+      <c r="W27" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
         <v>38</v>
       </c>
@@ -3871,62 +4046,64 @@
       <c r="C28" s="13">
         <v>200</v>
       </c>
-      <c r="D28" s="13">
-        <v>0</v>
-      </c>
-      <c r="E28" s="13">
-        <v>0</v>
-      </c>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
       <c r="F28" s="13">
         <v>0</v>
       </c>
       <c r="G28" s="13">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H28" s="13">
         <v>0</v>
       </c>
       <c r="I28" s="13">
+        <v>50</v>
+      </c>
+      <c r="J28" s="13">
+        <v>0</v>
+      </c>
+      <c r="K28" s="13">
         <v>150</v>
       </c>
-      <c r="J28" s="13">
-        <v>0</v>
-      </c>
-      <c r="K28" s="13">
+      <c r="L28" s="13">
+        <v>0</v>
+      </c>
+      <c r="M28" s="13">
         <v>100</v>
       </c>
-      <c r="L28" s="13">
-        <v>0</v>
-      </c>
-      <c r="M28" s="13">
+      <c r="N28" s="13">
+        <v>0</v>
+      </c>
+      <c r="O28" s="13">
         <v>150</v>
       </c>
-      <c r="N28" s="13">
-        <v>0</v>
-      </c>
-      <c r="O28" s="13">
-        <v>0</v>
-      </c>
       <c r="P28" s="13">
         <v>0</v>
       </c>
       <c r="Q28" s="13">
+        <v>0</v>
+      </c>
+      <c r="R28" s="13">
+        <v>0</v>
+      </c>
+      <c r="S28" s="13">
         <v>100</v>
       </c>
-      <c r="R28" s="13">
-        <v>0</v>
-      </c>
-      <c r="S28" s="13">
-        <v>50</v>
-      </c>
       <c r="T28" s="13">
         <v>0</v>
       </c>
       <c r="U28" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="V28" s="13">
+        <v>0</v>
+      </c>
+      <c r="W28" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
         <v>39</v>
       </c>
@@ -3936,62 +4113,64 @@
       <c r="C29" s="13">
         <v>728</v>
       </c>
-      <c r="D29" s="13">
-        <v>0</v>
-      </c>
-      <c r="E29" s="13">
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13">
+        <v>0</v>
+      </c>
+      <c r="G29" s="13">
         <v>432</v>
       </c>
-      <c r="F29" s="13">
-        <v>0</v>
-      </c>
-      <c r="G29" s="13">
+      <c r="H29" s="13">
+        <v>0</v>
+      </c>
+      <c r="I29" s="13">
         <v>386</v>
       </c>
-      <c r="H29" s="13">
-        <v>0</v>
-      </c>
-      <c r="I29" s="13">
+      <c r="J29" s="13">
+        <v>0</v>
+      </c>
+      <c r="K29" s="13">
         <v>582</v>
       </c>
-      <c r="J29" s="13">
-        <v>0</v>
-      </c>
-      <c r="K29" s="13">
+      <c r="L29" s="13">
+        <v>0</v>
+      </c>
+      <c r="M29" s="13">
         <v>532</v>
       </c>
-      <c r="L29" s="13">
-        <v>0</v>
-      </c>
-      <c r="M29" s="13">
+      <c r="N29" s="13">
+        <v>0</v>
+      </c>
+      <c r="O29" s="13">
         <v>1158</v>
       </c>
-      <c r="N29" s="13">
-        <v>0</v>
-      </c>
-      <c r="O29" s="13">
+      <c r="P29" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="13">
         <v>768</v>
       </c>
-      <c r="P29" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="13">
+      <c r="R29" s="13">
+        <v>0</v>
+      </c>
+      <c r="S29" s="13">
         <v>532</v>
       </c>
-      <c r="R29" s="13">
-        <v>0</v>
-      </c>
-      <c r="S29" s="13">
+      <c r="T29" s="13">
+        <v>0</v>
+      </c>
+      <c r="U29" s="13">
         <v>578</v>
       </c>
-      <c r="T29" s="13">
-        <v>0</v>
-      </c>
-      <c r="U29" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V29" s="13">
+        <v>0</v>
+      </c>
+      <c r="W29" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
         <v>42</v>
       </c>
@@ -4001,62 +4180,64 @@
       <c r="C30" s="13">
         <v>130</v>
       </c>
-      <c r="D30" s="13">
-        <v>0</v>
-      </c>
-      <c r="E30" s="13">
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13">
+        <v>0</v>
+      </c>
+      <c r="G30" s="13">
         <v>27</v>
       </c>
-      <c r="F30" s="13">
-        <v>0</v>
-      </c>
-      <c r="G30" s="13">
+      <c r="H30" s="13">
+        <v>0</v>
+      </c>
+      <c r="I30" s="13">
         <v>78</v>
       </c>
-      <c r="H30" s="13">
-        <v>0</v>
-      </c>
-      <c r="I30" s="13">
+      <c r="J30" s="13">
+        <v>0</v>
+      </c>
+      <c r="K30" s="13">
         <v>72</v>
       </c>
-      <c r="J30" s="13">
-        <v>0</v>
-      </c>
-      <c r="K30" s="13">
+      <c r="L30" s="13">
+        <v>0</v>
+      </c>
+      <c r="M30" s="13">
         <v>64</v>
       </c>
-      <c r="L30" s="13">
-        <v>0</v>
-      </c>
-      <c r="M30" s="13">
+      <c r="N30" s="13">
+        <v>0</v>
+      </c>
+      <c r="O30" s="13">
         <v>135</v>
       </c>
-      <c r="N30" s="13">
-        <v>0</v>
-      </c>
-      <c r="O30" s="13">
+      <c r="P30" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="13">
         <v>97</v>
       </c>
-      <c r="P30" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="13">
+      <c r="R30" s="13">
+        <v>0</v>
+      </c>
+      <c r="S30" s="13">
         <v>160</v>
       </c>
-      <c r="R30" s="13">
-        <v>0</v>
-      </c>
-      <c r="S30" s="13">
+      <c r="T30" s="13">
+        <v>0</v>
+      </c>
+      <c r="U30" s="13">
         <v>64</v>
       </c>
-      <c r="T30" s="13">
-        <v>0</v>
-      </c>
-      <c r="U30" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V30" s="13">
+        <v>0</v>
+      </c>
+      <c r="W30" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
         <v>40</v>
       </c>
@@ -4067,155 +4248,159 @@
         <f>C30*12/2</f>
         <v>780</v>
       </c>
-      <c r="D31" s="13">
-        <v>0</v>
-      </c>
-      <c r="E31" s="13">
-        <f>E30*12/2</f>
-        <v>162</v>
-      </c>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
       <c r="F31" s="13">
         <v>0</v>
       </c>
       <c r="G31" s="13">
         <f>G30*12/2</f>
-        <v>468</v>
+        <v>162</v>
       </c>
       <c r="H31" s="13">
         <v>0</v>
       </c>
       <c r="I31" s="13">
         <f>I30*12/2</f>
-        <v>432</v>
+        <v>468</v>
       </c>
       <c r="J31" s="13">
         <v>0</v>
       </c>
       <c r="K31" s="13">
         <f>K30*12/2</f>
+        <v>432</v>
+      </c>
+      <c r="L31" s="13">
+        <v>0</v>
+      </c>
+      <c r="M31" s="13">
+        <f>M30*12/2</f>
         <v>384</v>
       </c>
-      <c r="L31" s="13">
-        <v>0</v>
-      </c>
-      <c r="M31" s="13">
+      <c r="N31" s="13">
+        <v>0</v>
+      </c>
+      <c r="O31" s="13">
         <f xml:space="preserve"> 12*135/2</f>
         <v>810</v>
       </c>
-      <c r="N31" s="13">
-        <v>0</v>
-      </c>
-      <c r="O31" s="13">
-        <f>O30*12/2</f>
-        <v>582</v>
-      </c>
       <c r="P31" s="13">
         <v>0</v>
       </c>
       <c r="Q31" s="13">
         <f>Q30*12/2</f>
-        <v>960</v>
+        <v>582</v>
       </c>
       <c r="R31" s="13">
         <v>0</v>
       </c>
       <c r="S31" s="13">
         <f>S30*12/2</f>
+        <v>960</v>
+      </c>
+      <c r="T31" s="13">
+        <v>0</v>
+      </c>
+      <c r="U31" s="13">
+        <f>U30*12/2</f>
         <v>384</v>
       </c>
-      <c r="T31" s="13">
-        <v>0</v>
-      </c>
-      <c r="U31" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V31" s="13">
+        <v>0</v>
+      </c>
+      <c r="W31" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32" s="16" t="s">
         <v>35</v>
       </c>
       <c r="B32" s="13">
-        <f t="shared" ref="B32:U32" si="4">SUM(B3:B24)</f>
+        <f t="shared" ref="B32:W32" si="4">SUM(B3:B24)</f>
         <v>6779</v>
       </c>
       <c r="C32" s="13">
         <f t="shared" si="4"/>
         <v>6681</v>
       </c>
-      <c r="D32" s="13">
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13">
         <f t="shared" si="4"/>
         <v>5530</v>
       </c>
-      <c r="E32" s="13">
+      <c r="G32" s="13">
         <f t="shared" si="4"/>
         <v>4840</v>
       </c>
-      <c r="F32" s="13">
+      <c r="H32" s="13">
         <f t="shared" si="4"/>
         <v>5315</v>
       </c>
-      <c r="G32" s="13">
+      <c r="I32" s="13">
         <f t="shared" si="4"/>
         <v>4965</v>
       </c>
-      <c r="H32" s="13">
+      <c r="J32" s="13">
         <f t="shared" si="4"/>
         <v>4840</v>
       </c>
-      <c r="I32" s="13">
+      <c r="K32" s="13">
         <f t="shared" si="4"/>
         <v>5030</v>
       </c>
-      <c r="J32" s="13">
+      <c r="L32" s="13">
         <f t="shared" si="4"/>
         <v>11500</v>
       </c>
-      <c r="K32" s="13">
+      <c r="M32" s="13">
         <f t="shared" si="4"/>
         <v>7680</v>
       </c>
-      <c r="L32" s="13">
+      <c r="N32" s="13">
         <f t="shared" si="4"/>
         <v>5630</v>
       </c>
-      <c r="M32" s="13">
+      <c r="O32" s="13">
         <f t="shared" si="4"/>
         <v>8335</v>
       </c>
-      <c r="N32" s="13">
+      <c r="P32" s="13">
         <f t="shared" si="4"/>
         <v>5580</v>
       </c>
-      <c r="O32" s="13">
+      <c r="Q32" s="13">
         <f t="shared" si="4"/>
         <v>8825</v>
       </c>
-      <c r="P32" s="13">
+      <c r="R32" s="13">
         <f t="shared" si="4"/>
         <v>5110</v>
       </c>
-      <c r="Q32" s="13">
+      <c r="S32" s="13">
         <f t="shared" si="4"/>
         <v>5527</v>
       </c>
-      <c r="R32" s="13">
+      <c r="T32" s="13">
         <f t="shared" si="4"/>
         <v>7270</v>
       </c>
-      <c r="S32" s="13">
+      <c r="U32" s="13">
         <f t="shared" si="4"/>
         <v>4967</v>
       </c>
-      <c r="T32" s="13">
+      <c r="V32" s="13">
         <f t="shared" si="4"/>
         <v>817</v>
       </c>
-      <c r="U32" s="13">
+      <c r="W32" s="13">
         <f t="shared" si="4"/>
         <v>817</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
         <v>34</v>
       </c>
@@ -4225,62 +4410,64 @@
       <c r="C33" s="4">
         <v>6372</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4">
         <v>5141</v>
       </c>
-      <c r="E33" s="4">
+      <c r="G33" s="4">
         <v>4792</v>
       </c>
-      <c r="F33" s="4">
+      <c r="H33" s="4">
         <v>5140</v>
       </c>
-      <c r="G33" s="4">
+      <c r="I33" s="4">
         <v>4754</v>
       </c>
-      <c r="H33" s="4">
+      <c r="J33" s="4">
         <v>4298</v>
       </c>
-      <c r="I33" s="4">
+      <c r="K33" s="4">
         <v>5036</v>
       </c>
-      <c r="J33" s="4">
+      <c r="L33" s="4">
         <v>11368</v>
       </c>
-      <c r="K33" s="4">
+      <c r="M33" s="4">
         <v>7826</v>
       </c>
-      <c r="L33" s="4">
+      <c r="N33" s="4">
         <v>5251</v>
       </c>
-      <c r="M33" s="4">
+      <c r="O33" s="4">
         <v>8531</v>
       </c>
-      <c r="N33" s="4">
+      <c r="P33" s="4">
         <v>5246</v>
       </c>
-      <c r="O33" s="4">
+      <c r="Q33" s="4">
         <v>9342</v>
       </c>
-      <c r="P33" s="4">
+      <c r="R33" s="4">
         <v>4360</v>
       </c>
-      <c r="Q33" s="4">
+      <c r="S33" s="4">
         <v>6555</v>
       </c>
-      <c r="R33" s="4">
+      <c r="T33" s="4">
         <v>6737</v>
       </c>
-      <c r="S33" s="4">
+      <c r="U33" s="4">
         <v>5456</v>
       </c>
-      <c r="T33" s="13">
+      <c r="V33" s="13">
         <v>817</v>
       </c>
-      <c r="U33" s="13">
+      <c r="W33" s="13">
         <v>817</v>
       </c>
     </row>
-    <row r="34" spans="1:21" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="19" t="s">
         <v>43</v>
       </c>
@@ -4292,80 +4479,82 @@
         <f>(C32+C31-C33)</f>
         <v>1089</v>
       </c>
-      <c r="D34" s="4">
-        <f>(D32-D33)</f>
-        <v>389</v>
-      </c>
-      <c r="E34" s="4">
-        <f>(E32+E31-E33)</f>
-        <v>210</v>
-      </c>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
       <c r="F34" s="4">
         <f>(F32-F33)</f>
-        <v>175</v>
+        <v>389</v>
       </c>
       <c r="G34" s="4">
         <f>(G32+G31-G33)</f>
-        <v>679</v>
+        <v>210</v>
       </c>
       <c r="H34" s="4">
         <f>(H32-H33)</f>
-        <v>542</v>
+        <v>175</v>
       </c>
       <c r="I34" s="4">
         <f>(I32+I31-I33)</f>
-        <v>426</v>
+        <v>679</v>
       </c>
       <c r="J34" s="4">
         <f>(J32-J33)</f>
-        <v>132</v>
+        <v>542</v>
       </c>
       <c r="K34" s="4">
         <f>(K32+K31-K33)</f>
-        <v>238</v>
+        <v>426</v>
       </c>
       <c r="L34" s="4">
         <f>(L32-L33)</f>
-        <v>379</v>
+        <v>132</v>
       </c>
       <c r="M34" s="4">
         <f>(M32+M31-M33)</f>
-        <v>614</v>
+        <v>238</v>
       </c>
       <c r="N34" s="4">
         <f>(N32-N33)</f>
-        <v>334</v>
+        <v>379</v>
       </c>
       <c r="O34" s="4">
         <f>(O32+O31-O33)</f>
-        <v>65</v>
+        <v>614</v>
       </c>
       <c r="P34" s="4">
         <f>(P32-P33)</f>
-        <v>750</v>
+        <v>334</v>
       </c>
       <c r="Q34" s="4">
         <f>(Q32+Q31-Q33)</f>
-        <v>-68</v>
+        <v>65</v>
       </c>
       <c r="R34" s="4">
         <f>(R32-R33)</f>
-        <v>533</v>
+        <v>750</v>
       </c>
       <c r="S34" s="4">
         <f>(S32+S31-S33)</f>
+        <v>-68</v>
+      </c>
+      <c r="T34" s="4">
+        <f>(T32-T33)</f>
+        <v>533</v>
+      </c>
+      <c r="U34" s="4">
+        <f>(U32+U31-U33)</f>
         <v>-105</v>
       </c>
-      <c r="T34" s="13">
-        <f>(T32-T33)</f>
-        <v>0</v>
-      </c>
-      <c r="U34" s="13">
-        <f>(U32-U33)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V34" s="13">
+        <f>(V32-V33)</f>
+        <v>0</v>
+      </c>
+      <c r="W34" s="13">
+        <f>(W32-W33)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" s="18" t="s">
         <v>41</v>
       </c>
@@ -4377,92 +4566,95 @@
         <f>ROUND((C34 / C33) * 100, 2)</f>
         <v>17.09</v>
       </c>
-      <c r="D35" s="4">
-        <f t="shared" ref="D35:G35" si="5">ROUND((D34 / D33) * 100, 2)</f>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4">
+        <f t="shared" ref="F35:I35" si="5">ROUND((F34 / F33) * 100, 2)</f>
         <v>7.57</v>
       </c>
-      <c r="E35" s="4">
+      <c r="G35" s="4">
         <f t="shared" si="5"/>
         <v>4.38</v>
       </c>
-      <c r="F35" s="4">
+      <c r="H35" s="4">
         <f t="shared" si="5"/>
         <v>3.4</v>
       </c>
-      <c r="G35" s="4">
+      <c r="I35" s="4">
         <f t="shared" si="5"/>
         <v>14.28</v>
       </c>
-      <c r="H35" s="4">
-        <f t="shared" ref="H35" si="6">ROUND((H34 / H33) * 100, 2)</f>
+      <c r="J35" s="4">
+        <f t="shared" ref="J35" si="6">ROUND((J34 / J33) * 100, 2)</f>
         <v>12.61</v>
       </c>
-      <c r="I35" s="4">
-        <f t="shared" ref="I35" si="7">ROUND((I34 / I33) * 100, 2)</f>
+      <c r="K35" s="4">
+        <f t="shared" ref="K35" si="7">ROUND((K34 / K33) * 100, 2)</f>
         <v>8.4600000000000009</v>
       </c>
-      <c r="J35" s="4">
-        <f t="shared" ref="J35" si="8">ROUND((J34 / J33) * 100, 2)</f>
+      <c r="L35" s="4">
+        <f t="shared" ref="L35" si="8">ROUND((L34 / L33) * 100, 2)</f>
         <v>1.1599999999999999</v>
       </c>
-      <c r="K35" s="4">
-        <f t="shared" ref="K35" si="9">ROUND((K34 / K33) * 100, 2)</f>
+      <c r="M35" s="4">
+        <f t="shared" ref="M35" si="9">ROUND((M34 / M33) * 100, 2)</f>
         <v>3.04</v>
       </c>
-      <c r="L35" s="4">
-        <f t="shared" ref="L35" si="10">ROUND((L34 / L33) * 100, 2)</f>
+      <c r="N35" s="4">
+        <f t="shared" ref="N35" si="10">ROUND((N34 / N33) * 100, 2)</f>
         <v>7.22</v>
       </c>
-      <c r="M35" s="4">
-        <f t="shared" ref="M35" si="11">ROUND((M34 / M33) * 100, 2)</f>
+      <c r="O35" s="4">
+        <f t="shared" ref="O35" si="11">ROUND((O34 / O33) * 100, 2)</f>
         <v>7.2</v>
       </c>
-      <c r="N35" s="4">
-        <f t="shared" ref="N35" si="12">ROUND((N34 / N33) * 100, 2)</f>
+      <c r="P35" s="4">
+        <f t="shared" ref="P35" si="12">ROUND((P34 / P33) * 100, 2)</f>
         <v>6.37</v>
       </c>
-      <c r="O35" s="4">
-        <f t="shared" ref="O35" si="13">ROUND((O34 / O33) * 100, 2)</f>
+      <c r="Q35" s="4">
+        <f t="shared" ref="Q35" si="13">ROUND((Q34 / Q33) * 100, 2)</f>
         <v>0.7</v>
       </c>
-      <c r="P35" s="4">
-        <f t="shared" ref="P35" si="14">ROUND((P34 / P33) * 100, 2)</f>
+      <c r="R35" s="4">
+        <f t="shared" ref="R35" si="14">ROUND((R34 / R33) * 100, 2)</f>
         <v>17.2</v>
       </c>
-      <c r="Q35" s="4">
-        <f t="shared" ref="Q35" si="15">ROUND((Q34 / Q33) * 100, 2)</f>
+      <c r="S35" s="4">
+        <f t="shared" ref="S35" si="15">ROUND((S34 / S33) * 100, 2)</f>
         <v>-1.04</v>
       </c>
-      <c r="R35" s="4">
-        <f>ROUND((R34 / R33) * 100, 2)</f>
+      <c r="T35" s="4">
+        <f>ROUND((T34 / T33) * 100, 2)</f>
         <v>7.91</v>
       </c>
-      <c r="S35" s="4">
-        <f>ROUND((S34 / S33) * 100, 2)</f>
+      <c r="U35" s="4">
+        <f>ROUND((U34 / U33) * 100, 2)</f>
         <v>-1.92</v>
       </c>
-      <c r="T35" s="13">
-        <f t="shared" ref="T35" si="16">ROUND((T34 / T33) * 100, 2)</f>
-        <v>0</v>
-      </c>
-      <c r="U35" s="13">
-        <f t="shared" ref="U35" si="17">ROUND((U34 / U33) * 100, 2)</f>
+      <c r="V35" s="13">
+        <f t="shared" ref="V35" si="16">ROUND((V34 / V33) * 100, 2)</f>
+        <v>0</v>
+      </c>
+      <c r="W35" s="13">
+        <f t="shared" ref="W35" si="17">ROUND((W34 / W33) * 100, 2)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="L1:M1"/>
     <mergeCell ref="N1:O1"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="V1:W1"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="R1:S1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="T1:U1"/>
     <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" scale="82" orientation="landscape" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -4477,9 +4669,9 @@
       <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -5384,6 +5576,7 @@
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -5401,9 +5594,9 @@
       <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -6845,6 +7038,7 @@
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="J1:K1"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="landscape" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -6859,7 +7053,7 @@
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
   </cols>
@@ -7219,6 +7413,7 @@
   <mergeCells count="1">
     <mergeCell ref="B1:C1"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -7233,10 +7428,10 @@
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -7495,6 +7690,7 @@
       <c r="C29" s="20"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -7509,9 +7705,9 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -7861,6 +8057,7 @@
   <mergeCells count="1">
     <mergeCell ref="B1:C1"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
